--- a/database/industries/darou/deabid/product/monthly_seprated.xlsx
+++ b/database/industries/darou/deabid/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deabid\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45DEEC-39EB-4A02-A01E-A95210ADC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9B5523-E6E5-4DAB-8B9D-3218182A58F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1588,32 +1588,32 @@
       <c r="AR11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>58</v>
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>170889</v>
       </c>
       <c r="AW11" s="11">
-        <v>170889</v>
+        <v>47524</v>
       </c>
       <c r="AX11" s="11">
-        <v>47524</v>
+        <v>6273</v>
       </c>
       <c r="AY11" s="11">
-        <v>6273</v>
+        <v>432</v>
       </c>
       <c r="AZ11" s="11">
-        <v>432</v>
+        <v>3469</v>
       </c>
       <c r="BA11" s="11">
-        <v>3469</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="11">
         <v>0</v>
@@ -1708,44 +1708,44 @@
       <c r="AE12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
+      <c r="AF12" s="13">
+        <v>181992</v>
       </c>
       <c r="AG12" s="13">
-        <v>181992</v>
+        <v>147483</v>
       </c>
       <c r="AH12" s="13">
-        <v>147483</v>
+        <v>56346</v>
       </c>
       <c r="AI12" s="13">
-        <v>56346</v>
+        <v>27294</v>
       </c>
       <c r="AJ12" s="13">
-        <v>27294</v>
+        <v>110256</v>
       </c>
       <c r="AK12" s="13">
-        <v>110256</v>
+        <v>145656</v>
       </c>
       <c r="AL12" s="13">
-        <v>145656</v>
+        <v>133179</v>
       </c>
       <c r="AM12" s="13">
-        <v>133179</v>
+        <v>82248</v>
       </c>
       <c r="AN12" s="13">
-        <v>82248</v>
+        <v>118200</v>
       </c>
       <c r="AO12" s="13">
-        <v>118200</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS12" s="13" t="s">
         <v>58</v>
@@ -1867,44 +1867,44 @@
       <c r="AE13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF13" s="11" t="s">
-        <v>58</v>
+      <c r="AF13" s="11">
+        <v>0</v>
       </c>
       <c r="AG13" s="11">
         <v>0</v>
       </c>
       <c r="AH13" s="11">
-        <v>0</v>
+        <v>648758</v>
       </c>
       <c r="AI13" s="11">
-        <v>648758</v>
+        <v>347225</v>
       </c>
       <c r="AJ13" s="11">
-        <v>347225</v>
+        <v>400294</v>
       </c>
       <c r="AK13" s="11">
-        <v>400294</v>
+        <v>389635</v>
       </c>
       <c r="AL13" s="11">
-        <v>389635</v>
+        <v>163886</v>
       </c>
       <c r="AM13" s="11">
-        <v>163886</v>
+        <v>782691</v>
       </c>
       <c r="AN13" s="11">
-        <v>782691</v>
+        <v>1244376</v>
       </c>
       <c r="AO13" s="11">
-        <v>1244376</v>
+        <v>1346164</v>
       </c>
       <c r="AP13" s="11">
-        <v>1346164</v>
+        <v>1177885</v>
       </c>
       <c r="AQ13" s="11">
-        <v>1177885</v>
-      </c>
-      <c r="AR13" s="11">
         <v>1315827</v>
+      </c>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS13" s="11" t="s">
         <v>58</v>
@@ -2026,74 +2026,74 @@
       <c r="AE14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>58</v>
+      <c r="AF14" s="13">
+        <v>560590</v>
       </c>
       <c r="AG14" s="13">
-        <v>560590</v>
+        <v>838639</v>
       </c>
       <c r="AH14" s="13">
-        <v>838639</v>
+        <v>767371</v>
       </c>
       <c r="AI14" s="13">
-        <v>767371</v>
+        <v>632517</v>
       </c>
       <c r="AJ14" s="13">
-        <v>632517</v>
+        <v>613162</v>
       </c>
       <c r="AK14" s="13">
-        <v>613162</v>
+        <v>714062</v>
       </c>
       <c r="AL14" s="13">
-        <v>714062</v>
+        <v>661344</v>
       </c>
       <c r="AM14" s="13">
-        <v>661344</v>
+        <v>770553</v>
       </c>
       <c r="AN14" s="13">
-        <v>770553</v>
+        <v>1135161</v>
       </c>
       <c r="AO14" s="13">
-        <v>1135161</v>
+        <v>819172</v>
       </c>
       <c r="AP14" s="13">
-        <v>819172</v>
+        <v>838951</v>
       </c>
       <c r="AQ14" s="13">
-        <v>838951</v>
+        <v>479861</v>
       </c>
       <c r="AR14" s="13">
-        <v>479861</v>
+        <v>588260</v>
       </c>
       <c r="AS14" s="13">
-        <v>588260</v>
+        <v>721986</v>
       </c>
       <c r="AT14" s="13">
-        <v>721986</v>
+        <v>539519</v>
       </c>
       <c r="AU14" s="13">
-        <v>539519</v>
+        <v>404238</v>
       </c>
       <c r="AV14" s="13">
-        <v>404238</v>
+        <v>741943</v>
       </c>
       <c r="AW14" s="13">
-        <v>741943</v>
+        <v>650106</v>
       </c>
       <c r="AX14" s="13">
-        <v>650106</v>
+        <v>718497</v>
       </c>
       <c r="AY14" s="13">
-        <v>718497</v>
+        <v>566655</v>
       </c>
       <c r="AZ14" s="13">
-        <v>566655</v>
+        <v>991067</v>
       </c>
       <c r="BA14" s="13">
-        <v>991067</v>
+        <v>723241</v>
       </c>
       <c r="BB14" s="13">
-        <v>723241</v>
+        <v>881696</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2185,74 +2185,74 @@
       <c r="AE15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF15" s="11" t="s">
-        <v>58</v>
+      <c r="AF15" s="11">
+        <v>2501078</v>
       </c>
       <c r="AG15" s="11">
-        <v>2501078</v>
+        <v>2206098</v>
       </c>
       <c r="AH15" s="11">
-        <v>2206098</v>
+        <v>2446312</v>
       </c>
       <c r="AI15" s="11">
-        <v>2446312</v>
+        <v>1153464</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1153464</v>
+        <v>1890019</v>
       </c>
       <c r="AK15" s="11">
-        <v>1890019</v>
+        <v>1928260</v>
       </c>
       <c r="AL15" s="11">
-        <v>1928260</v>
+        <v>1713709</v>
       </c>
       <c r="AM15" s="11">
-        <v>1713709</v>
+        <v>1958099</v>
       </c>
       <c r="AN15" s="11">
-        <v>1958099</v>
+        <v>1784095</v>
       </c>
       <c r="AO15" s="11">
-        <v>1784095</v>
+        <v>1713376</v>
       </c>
       <c r="AP15" s="11">
-        <v>1713376</v>
+        <v>1278960</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1278960</v>
+        <v>1702921</v>
       </c>
       <c r="AR15" s="11">
-        <v>1702921</v>
+        <v>2394727</v>
       </c>
       <c r="AS15" s="11">
-        <v>2394727</v>
+        <v>2472522</v>
       </c>
       <c r="AT15" s="11">
-        <v>2472522</v>
+        <v>2648824</v>
       </c>
       <c r="AU15" s="11">
-        <v>2648824</v>
+        <v>2467148</v>
       </c>
       <c r="AV15" s="11">
-        <v>2467148</v>
+        <v>2259761</v>
       </c>
       <c r="AW15" s="11">
-        <v>2259761</v>
+        <v>2413870</v>
       </c>
       <c r="AX15" s="11">
-        <v>2413870</v>
+        <v>3150200</v>
       </c>
       <c r="AY15" s="11">
-        <v>3150200</v>
+        <v>3041277</v>
       </c>
       <c r="AZ15" s="11">
-        <v>3041277</v>
+        <v>2868961</v>
       </c>
       <c r="BA15" s="11">
-        <v>2868961</v>
+        <v>3361887</v>
       </c>
       <c r="BB15" s="11">
-        <v>3361887</v>
+        <v>2860358</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2380,38 +2380,38 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>1585260</v>
       </c>
       <c r="AS16" s="13">
-        <v>1585260</v>
+        <v>1421117</v>
       </c>
       <c r="AT16" s="13">
-        <v>1421117</v>
+        <v>1557544</v>
       </c>
       <c r="AU16" s="13">
-        <v>1557544</v>
+        <v>1305324</v>
       </c>
       <c r="AV16" s="13">
-        <v>1305324</v>
+        <v>1503893</v>
       </c>
       <c r="AW16" s="13">
-        <v>1503893</v>
+        <v>1171549</v>
       </c>
       <c r="AX16" s="13">
-        <v>1171549</v>
+        <v>1388134</v>
       </c>
       <c r="AY16" s="13">
-        <v>1388134</v>
+        <v>1505023</v>
       </c>
       <c r="AZ16" s="13">
-        <v>1505023</v>
+        <v>1602370</v>
       </c>
       <c r="BA16" s="13">
-        <v>1602370</v>
+        <v>1522111</v>
       </c>
       <c r="BB16" s="13">
-        <v>1522111</v>
+        <v>2021194</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2502,73 +2502,73 @@
         <v>0</v>
       </c>
       <c r="AF17" s="15">
-        <v>0</v>
+        <v>3243660</v>
       </c>
       <c r="AG17" s="15">
-        <v>3243660</v>
+        <v>3192220</v>
       </c>
       <c r="AH17" s="15">
-        <v>3192220</v>
+        <v>3918787</v>
       </c>
       <c r="AI17" s="15">
-        <v>3918787</v>
+        <v>2160500</v>
       </c>
       <c r="AJ17" s="15">
-        <v>2160500</v>
+        <v>3013731</v>
       </c>
       <c r="AK17" s="15">
-        <v>3013731</v>
+        <v>3177613</v>
       </c>
       <c r="AL17" s="15">
-        <v>3177613</v>
+        <v>2672118</v>
       </c>
       <c r="AM17" s="15">
-        <v>2672118</v>
+        <v>3593591</v>
       </c>
       <c r="AN17" s="15">
-        <v>3593591</v>
+        <v>4281832</v>
       </c>
       <c r="AO17" s="15">
-        <v>4281832</v>
+        <v>3878712</v>
       </c>
       <c r="AP17" s="15">
-        <v>3878712</v>
+        <v>3295796</v>
       </c>
       <c r="AQ17" s="15">
-        <v>3295796</v>
+        <v>3498609</v>
       </c>
       <c r="AR17" s="15">
-        <v>3498609</v>
+        <v>4568247</v>
       </c>
       <c r="AS17" s="15">
-        <v>4568247</v>
+        <v>4615625</v>
       </c>
       <c r="AT17" s="15">
-        <v>4615625</v>
+        <v>4745887</v>
       </c>
       <c r="AU17" s="15">
-        <v>4745887</v>
+        <v>4176710</v>
       </c>
       <c r="AV17" s="15">
-        <v>4176710</v>
+        <v>4676486</v>
       </c>
       <c r="AW17" s="15">
-        <v>4676486</v>
+        <v>4283049</v>
       </c>
       <c r="AX17" s="15">
-        <v>4283049</v>
+        <v>5263104</v>
       </c>
       <c r="AY17" s="15">
-        <v>5263104</v>
+        <v>5113387</v>
       </c>
       <c r="AZ17" s="15">
-        <v>5113387</v>
+        <v>5465867</v>
       </c>
       <c r="BA17" s="15">
-        <v>5465867</v>
+        <v>5607239</v>
       </c>
       <c r="BB17" s="15">
-        <v>5607239</v>
+        <v>5763248</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -3247,8 +3247,8 @@
       <c r="AE23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF23" s="15" t="s">
-        <v>58</v>
+      <c r="AF23" s="15">
+        <v>0</v>
       </c>
       <c r="AG23" s="15">
         <v>0</v>
@@ -3405,73 +3405,73 @@
         <v>0</v>
       </c>
       <c r="AF24" s="19">
-        <v>0</v>
+        <v>3243660</v>
       </c>
       <c r="AG24" s="19">
-        <v>3243660</v>
+        <v>3192220</v>
       </c>
       <c r="AH24" s="19">
-        <v>3192220</v>
+        <v>3918787</v>
       </c>
       <c r="AI24" s="19">
-        <v>3918787</v>
+        <v>2160500</v>
       </c>
       <c r="AJ24" s="19">
-        <v>2160500</v>
+        <v>3013731</v>
       </c>
       <c r="AK24" s="19">
-        <v>3013731</v>
+        <v>3177613</v>
       </c>
       <c r="AL24" s="19">
-        <v>3177613</v>
+        <v>2672118</v>
       </c>
       <c r="AM24" s="19">
-        <v>2672118</v>
+        <v>3593591</v>
       </c>
       <c r="AN24" s="19">
-        <v>3593591</v>
+        <v>4281832</v>
       </c>
       <c r="AO24" s="19">
-        <v>4281832</v>
+        <v>3878712</v>
       </c>
       <c r="AP24" s="19">
-        <v>3878712</v>
+        <v>3295796</v>
       </c>
       <c r="AQ24" s="19">
-        <v>3295796</v>
+        <v>3498609</v>
       </c>
       <c r="AR24" s="19">
-        <v>3498609</v>
+        <v>4568247</v>
       </c>
       <c r="AS24" s="19">
-        <v>4568247</v>
+        <v>4615625</v>
       </c>
       <c r="AT24" s="19">
-        <v>4615625</v>
+        <v>4745887</v>
       </c>
       <c r="AU24" s="19">
-        <v>4745887</v>
+        <v>4176710</v>
       </c>
       <c r="AV24" s="19">
-        <v>4176710</v>
+        <v>4676486</v>
       </c>
       <c r="AW24" s="19">
-        <v>4676486</v>
+        <v>4283049</v>
       </c>
       <c r="AX24" s="19">
-        <v>4283049</v>
+        <v>5263104</v>
       </c>
       <c r="AY24" s="19">
-        <v>5263104</v>
+        <v>5113387</v>
       </c>
       <c r="AZ24" s="19">
-        <v>5113387</v>
+        <v>5465867</v>
       </c>
       <c r="BA24" s="19">
-        <v>5465867</v>
+        <v>5607239</v>
       </c>
       <c r="BB24" s="19">
-        <v>5607239</v>
+        <v>5763248</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -4033,38 +4033,38 @@
       <c r="AQ31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR31" s="11" t="s">
-        <v>58</v>
+      <c r="AR31" s="11">
+        <v>54</v>
       </c>
       <c r="AS31" s="11">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="AT31" s="11">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="AU31" s="11">
-        <v>83</v>
-      </c>
-      <c r="AV31" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV31" s="11">
+        <v>22092</v>
       </c>
       <c r="AW31" s="11">
-        <v>22092</v>
+        <v>5361</v>
       </c>
       <c r="AX31" s="11">
-        <v>5361</v>
+        <v>6982</v>
       </c>
       <c r="AY31" s="11">
-        <v>6982</v>
+        <v>9055</v>
       </c>
       <c r="AZ31" s="11">
-        <v>9055</v>
+        <v>27127</v>
       </c>
       <c r="BA31" s="11">
-        <v>27127</v>
+        <v>67954</v>
       </c>
       <c r="BB31" s="11">
-        <v>67954</v>
+        <v>113228</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4156,44 +4156,44 @@
       <c r="AE32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF32" s="13" t="s">
-        <v>58</v>
+      <c r="AF32" s="13">
+        <v>8944</v>
       </c>
       <c r="AG32" s="13">
-        <v>8944</v>
+        <v>16045</v>
       </c>
       <c r="AH32" s="13">
-        <v>16045</v>
+        <v>24535</v>
       </c>
       <c r="AI32" s="13">
-        <v>24535</v>
+        <v>12741</v>
       </c>
       <c r="AJ32" s="13">
-        <v>12741</v>
+        <v>27898</v>
       </c>
       <c r="AK32" s="13">
-        <v>27898</v>
+        <v>22200</v>
       </c>
       <c r="AL32" s="13">
-        <v>22200</v>
+        <v>18906</v>
       </c>
       <c r="AM32" s="13">
-        <v>18906</v>
+        <v>22216</v>
       </c>
       <c r="AN32" s="13">
-        <v>22216</v>
+        <v>7750</v>
       </c>
       <c r="AO32" s="13">
-        <v>7750</v>
+        <v>5959</v>
       </c>
       <c r="AP32" s="13">
-        <v>5959</v>
+        <v>1144</v>
       </c>
       <c r="AQ32" s="13">
-        <v>1144</v>
-      </c>
-      <c r="AR32" s="13">
         <v>770</v>
+      </c>
+      <c r="AR32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS32" s="13" t="s">
         <v>58</v>
@@ -4315,44 +4315,44 @@
       <c r="AE33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF33" s="11" t="s">
-        <v>58</v>
+      <c r="AF33" s="11">
+        <v>285868</v>
       </c>
       <c r="AG33" s="11">
-        <v>285868</v>
+        <v>447174</v>
       </c>
       <c r="AH33" s="11">
-        <v>447174</v>
+        <v>473283</v>
       </c>
       <c r="AI33" s="11">
-        <v>473283</v>
+        <v>430385</v>
       </c>
       <c r="AJ33" s="11">
-        <v>430385</v>
+        <v>409438</v>
       </c>
       <c r="AK33" s="11">
-        <v>409438</v>
+        <v>434565</v>
       </c>
       <c r="AL33" s="11">
-        <v>434565</v>
+        <v>579071</v>
       </c>
       <c r="AM33" s="11">
-        <v>579071</v>
+        <v>1017576</v>
       </c>
       <c r="AN33" s="11">
-        <v>1017576</v>
+        <v>882545</v>
       </c>
       <c r="AO33" s="11">
-        <v>882545</v>
+        <v>888176</v>
       </c>
       <c r="AP33" s="11">
-        <v>888176</v>
+        <v>1743227</v>
       </c>
       <c r="AQ33" s="11">
-        <v>1743227</v>
-      </c>
-      <c r="AR33" s="11">
         <v>1426828</v>
+      </c>
+      <c r="AR33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS33" s="11" t="s">
         <v>58</v>
@@ -4474,74 +4474,74 @@
       <c r="AE34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>58</v>
+      <c r="AF34" s="13">
+        <v>467528</v>
       </c>
       <c r="AG34" s="13">
-        <v>467528</v>
+        <v>587126</v>
       </c>
       <c r="AH34" s="13">
-        <v>587126</v>
+        <v>618410</v>
       </c>
       <c r="AI34" s="13">
-        <v>618410</v>
+        <v>290689</v>
       </c>
       <c r="AJ34" s="13">
-        <v>290689</v>
+        <v>604996</v>
       </c>
       <c r="AK34" s="13">
-        <v>604996</v>
+        <v>597149</v>
       </c>
       <c r="AL34" s="13">
-        <v>597149</v>
+        <v>624677</v>
       </c>
       <c r="AM34" s="13">
-        <v>624677</v>
+        <v>592899</v>
       </c>
       <c r="AN34" s="13">
-        <v>592899</v>
+        <v>1180222</v>
       </c>
       <c r="AO34" s="13">
-        <v>1180222</v>
+        <v>484775</v>
       </c>
       <c r="AP34" s="13">
-        <v>484775</v>
+        <v>660278</v>
       </c>
       <c r="AQ34" s="13">
-        <v>660278</v>
+        <v>654112</v>
       </c>
       <c r="AR34" s="13">
-        <v>654112</v>
+        <v>549674</v>
       </c>
       <c r="AS34" s="13">
-        <v>549674</v>
+        <v>770343</v>
       </c>
       <c r="AT34" s="13">
-        <v>770343</v>
+        <v>584600</v>
       </c>
       <c r="AU34" s="13">
-        <v>584600</v>
+        <v>505100</v>
       </c>
       <c r="AV34" s="13">
-        <v>505100</v>
+        <v>764278</v>
       </c>
       <c r="AW34" s="13">
-        <v>764278</v>
+        <v>652335</v>
       </c>
       <c r="AX34" s="13">
-        <v>652335</v>
+        <v>800196</v>
       </c>
       <c r="AY34" s="13">
-        <v>800196</v>
+        <v>604770</v>
       </c>
       <c r="AZ34" s="13">
-        <v>604770</v>
+        <v>599261</v>
       </c>
       <c r="BA34" s="13">
-        <v>599261</v>
+        <v>818718</v>
       </c>
       <c r="BB34" s="13">
-        <v>818718</v>
+        <v>591590</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4633,74 +4633,74 @@
       <c r="AE35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF35" s="11" t="s">
-        <v>58</v>
+      <c r="AF35" s="11">
+        <v>1098306</v>
       </c>
       <c r="AG35" s="11">
-        <v>1098306</v>
+        <v>1325890</v>
       </c>
       <c r="AH35" s="11">
-        <v>1325890</v>
+        <v>1484449</v>
       </c>
       <c r="AI35" s="11">
-        <v>1484449</v>
+        <v>878485</v>
       </c>
       <c r="AJ35" s="11">
-        <v>878485</v>
+        <v>1373375</v>
       </c>
       <c r="AK35" s="11">
-        <v>1373375</v>
+        <v>1241736</v>
       </c>
       <c r="AL35" s="11">
-        <v>1241736</v>
+        <v>1725798</v>
       </c>
       <c r="AM35" s="11">
-        <v>1725798</v>
+        <v>2041833</v>
       </c>
       <c r="AN35" s="11">
-        <v>2041833</v>
+        <v>2496537</v>
       </c>
       <c r="AO35" s="11">
-        <v>2496537</v>
+        <v>1915831</v>
       </c>
       <c r="AP35" s="11">
-        <v>1915831</v>
+        <v>2466074</v>
       </c>
       <c r="AQ35" s="11">
-        <v>2466074</v>
+        <v>2349339</v>
       </c>
       <c r="AR35" s="11">
-        <v>2349339</v>
+        <v>2161640</v>
       </c>
       <c r="AS35" s="11">
-        <v>2161640</v>
+        <v>3298955</v>
       </c>
       <c r="AT35" s="11">
-        <v>3298955</v>
+        <v>2668062</v>
       </c>
       <c r="AU35" s="11">
-        <v>2668062</v>
+        <v>1737915</v>
       </c>
       <c r="AV35" s="11">
-        <v>1737915</v>
+        <v>2369428</v>
       </c>
       <c r="AW35" s="11">
-        <v>2369428</v>
+        <v>2318179</v>
       </c>
       <c r="AX35" s="11">
-        <v>2318179</v>
+        <v>2353065</v>
       </c>
       <c r="AY35" s="11">
-        <v>2353065</v>
+        <v>2319043</v>
       </c>
       <c r="AZ35" s="11">
-        <v>2319043</v>
+        <v>2644829</v>
       </c>
       <c r="BA35" s="11">
-        <v>2644829</v>
+        <v>3332828</v>
       </c>
       <c r="BB35" s="11">
-        <v>3332828</v>
+        <v>3208570</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4828,38 +4828,38 @@
       <c r="AQ36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR36" s="13" t="s">
-        <v>58</v>
+      <c r="AR36" s="13">
+        <v>1420484</v>
       </c>
       <c r="AS36" s="13">
-        <v>1420484</v>
+        <v>2038343</v>
       </c>
       <c r="AT36" s="13">
-        <v>2038343</v>
+        <v>877845</v>
       </c>
       <c r="AU36" s="13">
-        <v>877845</v>
+        <v>1173513</v>
       </c>
       <c r="AV36" s="13">
-        <v>1173513</v>
+        <v>1932014</v>
       </c>
       <c r="AW36" s="13">
-        <v>1932014</v>
+        <v>1301217</v>
       </c>
       <c r="AX36" s="13">
-        <v>1301217</v>
+        <v>1254593</v>
       </c>
       <c r="AY36" s="13">
-        <v>1254593</v>
+        <v>1141767</v>
       </c>
       <c r="AZ36" s="13">
-        <v>1141767</v>
+        <v>1155716</v>
       </c>
       <c r="BA36" s="13">
-        <v>1155716</v>
+        <v>2570354</v>
       </c>
       <c r="BB36" s="13">
-        <v>2570354</v>
+        <v>2499780</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4950,73 +4950,73 @@
         <v>0</v>
       </c>
       <c r="AF37" s="15">
-        <v>0</v>
+        <v>1860646</v>
       </c>
       <c r="AG37" s="15">
-        <v>1860646</v>
+        <v>2376235</v>
       </c>
       <c r="AH37" s="15">
-        <v>2376235</v>
+        <v>2600677</v>
       </c>
       <c r="AI37" s="15">
-        <v>2600677</v>
+        <v>1612300</v>
       </c>
       <c r="AJ37" s="15">
-        <v>1612300</v>
+        <v>2415707</v>
       </c>
       <c r="AK37" s="15">
-        <v>2415707</v>
+        <v>2295650</v>
       </c>
       <c r="AL37" s="15">
-        <v>2295650</v>
+        <v>2948452</v>
       </c>
       <c r="AM37" s="15">
-        <v>2948452</v>
+        <v>3674524</v>
       </c>
       <c r="AN37" s="15">
-        <v>3674524</v>
+        <v>4567054</v>
       </c>
       <c r="AO37" s="15">
-        <v>4567054</v>
+        <v>3294741</v>
       </c>
       <c r="AP37" s="15">
-        <v>3294741</v>
+        <v>4870723</v>
       </c>
       <c r="AQ37" s="15">
-        <v>4870723</v>
+        <v>4431049</v>
       </c>
       <c r="AR37" s="15">
-        <v>4431049</v>
+        <v>4131852</v>
       </c>
       <c r="AS37" s="15">
-        <v>4131852</v>
+        <v>6107802</v>
       </c>
       <c r="AT37" s="15">
-        <v>6107802</v>
+        <v>4130590</v>
       </c>
       <c r="AU37" s="15">
-        <v>4130590</v>
+        <v>3416528</v>
       </c>
       <c r="AV37" s="15">
-        <v>3416528</v>
+        <v>5087812</v>
       </c>
       <c r="AW37" s="15">
-        <v>5087812</v>
+        <v>4277092</v>
       </c>
       <c r="AX37" s="15">
-        <v>4277092</v>
+        <v>4414836</v>
       </c>
       <c r="AY37" s="15">
-        <v>4414836</v>
+        <v>4074635</v>
       </c>
       <c r="AZ37" s="15">
-        <v>4074635</v>
+        <v>4426933</v>
       </c>
       <c r="BA37" s="15">
-        <v>4426933</v>
+        <v>6789854</v>
       </c>
       <c r="BB37" s="15">
-        <v>6789854</v>
+        <v>6413168</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5695,8 +5695,8 @@
       <c r="AE43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF43" s="15" t="s">
-        <v>58</v>
+      <c r="AF43" s="15">
+        <v>0</v>
       </c>
       <c r="AG43" s="15">
         <v>0</v>
@@ -5909,8 +5909,8 @@
       <c r="AE45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF45" s="15" t="s">
-        <v>58</v>
+      <c r="AF45" s="15">
+        <v>0</v>
       </c>
       <c r="AG45" s="15">
         <v>0</v>
@@ -6067,73 +6067,73 @@
         <v>0</v>
       </c>
       <c r="AF46" s="19">
-        <v>0</v>
+        <v>1860646</v>
       </c>
       <c r="AG46" s="19">
-        <v>1860646</v>
+        <v>2376235</v>
       </c>
       <c r="AH46" s="19">
-        <v>2376235</v>
+        <v>2600677</v>
       </c>
       <c r="AI46" s="19">
-        <v>2600677</v>
+        <v>1612300</v>
       </c>
       <c r="AJ46" s="19">
-        <v>1612300</v>
+        <v>2415707</v>
       </c>
       <c r="AK46" s="19">
-        <v>2415707</v>
+        <v>2295650</v>
       </c>
       <c r="AL46" s="19">
-        <v>2295650</v>
+        <v>2948452</v>
       </c>
       <c r="AM46" s="19">
-        <v>2948452</v>
+        <v>3674524</v>
       </c>
       <c r="AN46" s="19">
-        <v>3674524</v>
+        <v>4567054</v>
       </c>
       <c r="AO46" s="19">
-        <v>4567054</v>
+        <v>3294741</v>
       </c>
       <c r="AP46" s="19">
-        <v>3294741</v>
+        <v>4870723</v>
       </c>
       <c r="AQ46" s="19">
-        <v>4870723</v>
+        <v>4431049</v>
       </c>
       <c r="AR46" s="19">
-        <v>4431049</v>
+        <v>4131852</v>
       </c>
       <c r="AS46" s="19">
-        <v>4131852</v>
+        <v>6107802</v>
       </c>
       <c r="AT46" s="19">
-        <v>6107802</v>
+        <v>4130590</v>
       </c>
       <c r="AU46" s="19">
-        <v>4130590</v>
+        <v>3416528</v>
       </c>
       <c r="AV46" s="19">
-        <v>3416528</v>
+        <v>5087812</v>
       </c>
       <c r="AW46" s="19">
-        <v>5087812</v>
+        <v>4277092</v>
       </c>
       <c r="AX46" s="19">
-        <v>4277092</v>
+        <v>4414836</v>
       </c>
       <c r="AY46" s="19">
-        <v>4414836</v>
+        <v>4074635</v>
       </c>
       <c r="AZ46" s="19">
-        <v>4074635</v>
+        <v>4426933</v>
       </c>
       <c r="BA46" s="19">
-        <v>4426933</v>
+        <v>6789854</v>
       </c>
       <c r="BB46" s="19">
-        <v>6789854</v>
+        <v>6413168</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6695,38 +6695,38 @@
       <c r="AQ53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="11" t="s">
-        <v>58</v>
+      <c r="AR53" s="11">
+        <v>33</v>
       </c>
       <c r="AS53" s="11">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="AT53" s="11">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="AU53" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="11">
-        <v>0</v>
+        <v>13969</v>
       </c>
       <c r="AW53" s="11">
-        <v>13969</v>
+        <v>3389</v>
       </c>
       <c r="AX53" s="11">
-        <v>3389</v>
+        <v>4415</v>
       </c>
       <c r="AY53" s="11">
-        <v>4415</v>
+        <v>5727</v>
       </c>
       <c r="AZ53" s="11">
-        <v>5727</v>
+        <v>42971</v>
       </c>
       <c r="BA53" s="11">
-        <v>42971</v>
+        <v>47899</v>
       </c>
       <c r="BB53" s="11">
-        <v>47899</v>
+        <v>64866</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6818,44 +6818,44 @@
       <c r="AE54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF54" s="13" t="s">
-        <v>58</v>
+      <c r="AF54" s="13">
+        <v>5389</v>
       </c>
       <c r="AG54" s="13">
-        <v>5389</v>
+        <v>8694</v>
       </c>
       <c r="AH54" s="13">
-        <v>8694</v>
+        <v>13955</v>
       </c>
       <c r="AI54" s="13">
-        <v>13955</v>
+        <v>7385</v>
       </c>
       <c r="AJ54" s="13">
-        <v>7385</v>
+        <v>17172</v>
       </c>
       <c r="AK54" s="13">
-        <v>17172</v>
+        <v>13441</v>
       </c>
       <c r="AL54" s="13">
-        <v>13441</v>
+        <v>10344</v>
       </c>
       <c r="AM54" s="13">
-        <v>10344</v>
+        <v>13415</v>
       </c>
       <c r="AN54" s="13">
-        <v>13415</v>
+        <v>4688</v>
       </c>
       <c r="AO54" s="13">
-        <v>4688</v>
+        <v>3386</v>
       </c>
       <c r="AP54" s="13">
-        <v>3386</v>
+        <v>688</v>
       </c>
       <c r="AQ54" s="13">
-        <v>688</v>
-      </c>
-      <c r="AR54" s="13">
         <v>465</v>
+      </c>
+      <c r="AR54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS54" s="13" t="s">
         <v>58</v>
@@ -6977,44 +6977,44 @@
       <c r="AE55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF55" s="11" t="s">
-        <v>58</v>
+      <c r="AF55" s="11">
+        <v>25987</v>
       </c>
       <c r="AG55" s="11">
-        <v>25987</v>
+        <v>36320</v>
       </c>
       <c r="AH55" s="11">
-        <v>36320</v>
+        <v>40514</v>
       </c>
       <c r="AI55" s="11">
-        <v>40514</v>
+        <v>41747</v>
       </c>
       <c r="AJ55" s="11">
-        <v>41747</v>
+        <v>36246</v>
       </c>
       <c r="AK55" s="11">
-        <v>36246</v>
+        <v>38689</v>
       </c>
       <c r="AL55" s="11">
-        <v>38689</v>
+        <v>50779</v>
       </c>
       <c r="AM55" s="11">
-        <v>50779</v>
+        <v>85271</v>
       </c>
       <c r="AN55" s="11">
-        <v>85271</v>
+        <v>81231</v>
       </c>
       <c r="AO55" s="11">
-        <v>81231</v>
+        <v>83171</v>
       </c>
       <c r="AP55" s="11">
-        <v>83171</v>
+        <v>164100</v>
       </c>
       <c r="AQ55" s="11">
-        <v>164100</v>
-      </c>
-      <c r="AR55" s="11">
         <v>137311</v>
+      </c>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS55" s="11" t="s">
         <v>58</v>
@@ -7136,74 +7136,74 @@
       <c r="AE56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF56" s="13" t="s">
-        <v>58</v>
+      <c r="AF56" s="13">
+        <v>274190</v>
       </c>
       <c r="AG56" s="13">
-        <v>274190</v>
+        <v>379034</v>
       </c>
       <c r="AH56" s="13">
-        <v>379034</v>
+        <v>439931</v>
       </c>
       <c r="AI56" s="13">
-        <v>439931</v>
+        <v>214203</v>
       </c>
       <c r="AJ56" s="13">
-        <v>214203</v>
+        <v>396696</v>
       </c>
       <c r="AK56" s="13">
-        <v>396696</v>
+        <v>421257</v>
       </c>
       <c r="AL56" s="13">
-        <v>421257</v>
+        <v>415051</v>
       </c>
       <c r="AM56" s="13">
-        <v>415051</v>
+        <v>439408</v>
       </c>
       <c r="AN56" s="13">
-        <v>439408</v>
+        <v>649542</v>
       </c>
       <c r="AO56" s="13">
-        <v>649542</v>
+        <v>373516</v>
       </c>
       <c r="AP56" s="13">
-        <v>373516</v>
+        <v>534911</v>
       </c>
       <c r="AQ56" s="13">
-        <v>534911</v>
+        <v>558831</v>
       </c>
       <c r="AR56" s="13">
-        <v>558831</v>
+        <v>423922</v>
       </c>
       <c r="AS56" s="13">
-        <v>423922</v>
+        <v>522057</v>
       </c>
       <c r="AT56" s="13">
-        <v>522057</v>
+        <v>458559</v>
       </c>
       <c r="AU56" s="13">
-        <v>458559</v>
+        <v>506818</v>
       </c>
       <c r="AV56" s="13">
-        <v>506818</v>
+        <v>607517</v>
       </c>
       <c r="AW56" s="13">
-        <v>607517</v>
+        <v>675667</v>
       </c>
       <c r="AX56" s="13">
-        <v>675667</v>
+        <v>757268</v>
       </c>
       <c r="AY56" s="13">
-        <v>757268</v>
+        <v>656929</v>
       </c>
       <c r="AZ56" s="13">
-        <v>656929</v>
+        <v>771724</v>
       </c>
       <c r="BA56" s="13">
-        <v>771724</v>
+        <v>656597</v>
       </c>
       <c r="BB56" s="13">
-        <v>656597</v>
+        <v>705381</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7295,74 +7295,74 @@
       <c r="AE57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF57" s="11" t="s">
-        <v>58</v>
+      <c r="AF57" s="11">
+        <v>932647</v>
       </c>
       <c r="AG57" s="11">
-        <v>932647</v>
+        <v>1079537</v>
       </c>
       <c r="AH57" s="11">
-        <v>1079537</v>
+        <v>1306898</v>
       </c>
       <c r="AI57" s="11">
-        <v>1306898</v>
+        <v>836905</v>
       </c>
       <c r="AJ57" s="11">
-        <v>836905</v>
+        <v>1245568</v>
       </c>
       <c r="AK57" s="11">
-        <v>1245568</v>
+        <v>1210612</v>
       </c>
       <c r="AL57" s="11">
-        <v>1210612</v>
+        <v>1432926</v>
       </c>
       <c r="AM57" s="11">
-        <v>1432926</v>
+        <v>1648490</v>
       </c>
       <c r="AN57" s="11">
-        <v>1648490</v>
+        <v>2071678</v>
       </c>
       <c r="AO57" s="11">
-        <v>2071678</v>
+        <v>1684209</v>
       </c>
       <c r="AP57" s="11">
-        <v>1684209</v>
+        <v>1943942</v>
       </c>
       <c r="AQ57" s="11">
-        <v>1943942</v>
+        <v>2148252</v>
       </c>
       <c r="AR57" s="11">
-        <v>2148252</v>
+        <v>1762613</v>
       </c>
       <c r="AS57" s="11">
-        <v>1762613</v>
+        <v>2377872</v>
       </c>
       <c r="AT57" s="11">
-        <v>2377872</v>
+        <v>2238813</v>
       </c>
       <c r="AU57" s="11">
-        <v>2238813</v>
+        <v>1694191</v>
       </c>
       <c r="AV57" s="11">
-        <v>1694191</v>
+        <v>2442669</v>
       </c>
       <c r="AW57" s="11">
-        <v>2442669</v>
+        <v>2469638</v>
       </c>
       <c r="AX57" s="11">
-        <v>2469638</v>
+        <v>2589891</v>
       </c>
       <c r="AY57" s="11">
-        <v>2589891</v>
+        <v>3462720</v>
       </c>
       <c r="AZ57" s="11">
-        <v>3462720</v>
+        <v>3786997</v>
       </c>
       <c r="BA57" s="11">
-        <v>3786997</v>
+        <v>4341185</v>
       </c>
       <c r="BB57" s="11">
-        <v>4341185</v>
+        <v>4881214</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7490,38 +7490,38 @@
       <c r="AQ58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR58" s="13" t="s">
-        <v>58</v>
+      <c r="AR58" s="13">
+        <v>132301</v>
       </c>
       <c r="AS58" s="13">
-        <v>132301</v>
+        <v>200459</v>
       </c>
       <c r="AT58" s="13">
-        <v>200459</v>
+        <v>91826</v>
       </c>
       <c r="AU58" s="13">
-        <v>91826</v>
+        <v>145401</v>
       </c>
       <c r="AV58" s="13">
-        <v>145401</v>
+        <v>237817</v>
       </c>
       <c r="AW58" s="13">
-        <v>237817</v>
+        <v>162979</v>
       </c>
       <c r="AX58" s="13">
-        <v>162979</v>
+        <v>160563</v>
       </c>
       <c r="AY58" s="13">
-        <v>160563</v>
+        <v>154226</v>
       </c>
       <c r="AZ58" s="13">
-        <v>154226</v>
+        <v>153366</v>
       </c>
       <c r="BA58" s="13">
-        <v>153366</v>
+        <v>339055</v>
       </c>
       <c r="BB58" s="13">
-        <v>339055</v>
+        <v>446171</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7612,73 +7612,73 @@
         <v>0</v>
       </c>
       <c r="AF59" s="15">
-        <v>0</v>
+        <v>1238213</v>
       </c>
       <c r="AG59" s="15">
-        <v>1238213</v>
+        <v>1503585</v>
       </c>
       <c r="AH59" s="15">
-        <v>1503585</v>
+        <v>1801298</v>
       </c>
       <c r="AI59" s="15">
-        <v>1801298</v>
+        <v>1100240</v>
       </c>
       <c r="AJ59" s="15">
-        <v>1100240</v>
+        <v>1695682</v>
       </c>
       <c r="AK59" s="15">
-        <v>1695682</v>
+        <v>1683999</v>
       </c>
       <c r="AL59" s="15">
-        <v>1683999</v>
+        <v>1909100</v>
       </c>
       <c r="AM59" s="15">
-        <v>1909100</v>
+        <v>2186584</v>
       </c>
       <c r="AN59" s="15">
-        <v>2186584</v>
+        <v>2807139</v>
       </c>
       <c r="AO59" s="15">
-        <v>2807139</v>
+        <v>2144282</v>
       </c>
       <c r="AP59" s="15">
-        <v>2144282</v>
+        <v>2643641</v>
       </c>
       <c r="AQ59" s="15">
-        <v>2643641</v>
+        <v>2844859</v>
       </c>
       <c r="AR59" s="15">
-        <v>2844859</v>
+        <v>2318869</v>
       </c>
       <c r="AS59" s="15">
-        <v>2318869</v>
+        <v>3100486</v>
       </c>
       <c r="AT59" s="15">
-        <v>3100486</v>
+        <v>2789248</v>
       </c>
       <c r="AU59" s="15">
-        <v>2789248</v>
+        <v>2346410</v>
       </c>
       <c r="AV59" s="15">
-        <v>2346410</v>
+        <v>3301972</v>
       </c>
       <c r="AW59" s="15">
-        <v>3301972</v>
+        <v>3311673</v>
       </c>
       <c r="AX59" s="15">
-        <v>3311673</v>
+        <v>3512137</v>
       </c>
       <c r="AY59" s="15">
-        <v>3512137</v>
+        <v>4279602</v>
       </c>
       <c r="AZ59" s="15">
-        <v>4279602</v>
+        <v>4755058</v>
       </c>
       <c r="BA59" s="15">
-        <v>4755058</v>
+        <v>5384736</v>
       </c>
       <c r="BB59" s="15">
-        <v>5384736</v>
+        <v>6097632</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7863,11 +7863,11 @@
       <c r="AQ61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS61" s="11">
-        <v>0</v>
+      <c r="AR61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT61" s="11" t="s">
         <v>58</v>
@@ -8022,11 +8022,11 @@
       <c r="AQ62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS62" s="13">
-        <v>0</v>
+      <c r="AR62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT62" s="13" t="s">
         <v>58</v>
@@ -8359,8 +8359,8 @@
       <c r="AE65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF65" s="15" t="s">
-        <v>58</v>
+      <c r="AF65" s="15">
+        <v>0</v>
       </c>
       <c r="AG65" s="15">
         <v>0</v>
@@ -8575,8 +8575,8 @@
       <c r="AE67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF67" s="15" t="s">
-        <v>58</v>
+      <c r="AF67" s="15">
+        <v>0</v>
       </c>
       <c r="AG67" s="15">
         <v>0</v>
@@ -8791,8 +8791,8 @@
       <c r="AE69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF69" s="11" t="s">
-        <v>58</v>
+      <c r="AF69" s="11">
+        <v>0</v>
       </c>
       <c r="AG69" s="11">
         <v>0</v>
@@ -8837,28 +8837,28 @@
         <v>0</v>
       </c>
       <c r="AU69" s="11">
-        <v>0</v>
+        <v>-222689</v>
       </c>
       <c r="AV69" s="11">
-        <v>-222689</v>
+        <v>-282220</v>
       </c>
       <c r="AW69" s="11">
-        <v>-282220</v>
+        <v>-298449</v>
       </c>
       <c r="AX69" s="11">
-        <v>-298449</v>
+        <v>-275998</v>
       </c>
       <c r="AY69" s="11">
-        <v>-275998</v>
+        <v>-326330</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-326330</v>
+        <v>-405203</v>
       </c>
       <c r="BA69" s="11">
-        <v>-405203</v>
+        <v>-475225</v>
       </c>
       <c r="BB69" s="11">
-        <v>-475225</v>
+        <v>-417374</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8949,73 +8949,73 @@
         <v>0</v>
       </c>
       <c r="AF70" s="19">
-        <v>0</v>
+        <v>1238213</v>
       </c>
       <c r="AG70" s="19">
-        <v>1238213</v>
+        <v>1503585</v>
       </c>
       <c r="AH70" s="19">
-        <v>1503585</v>
+        <v>1801298</v>
       </c>
       <c r="AI70" s="19">
-        <v>1801298</v>
+        <v>1100240</v>
       </c>
       <c r="AJ70" s="19">
-        <v>1100240</v>
+        <v>1695682</v>
       </c>
       <c r="AK70" s="19">
-        <v>1695682</v>
+        <v>1683999</v>
       </c>
       <c r="AL70" s="19">
-        <v>1683999</v>
+        <v>1909100</v>
       </c>
       <c r="AM70" s="19">
-        <v>1909100</v>
+        <v>2186584</v>
       </c>
       <c r="AN70" s="19">
-        <v>2186584</v>
+        <v>2807139</v>
       </c>
       <c r="AO70" s="19">
-        <v>2807139</v>
+        <v>2144282</v>
       </c>
       <c r="AP70" s="19">
-        <v>2144282</v>
+        <v>2643641</v>
       </c>
       <c r="AQ70" s="19">
-        <v>2643641</v>
+        <v>2844859</v>
       </c>
       <c r="AR70" s="19">
-        <v>2844859</v>
+        <v>2318869</v>
       </c>
       <c r="AS70" s="19">
-        <v>2318869</v>
+        <v>3100486</v>
       </c>
       <c r="AT70" s="19">
-        <v>3100486</v>
+        <v>2789248</v>
       </c>
       <c r="AU70" s="19">
-        <v>2789248</v>
+        <v>2123721</v>
       </c>
       <c r="AV70" s="19">
-        <v>2123721</v>
+        <v>3019752</v>
       </c>
       <c r="AW70" s="19">
-        <v>3019752</v>
+        <v>3013224</v>
       </c>
       <c r="AX70" s="19">
-        <v>3013224</v>
+        <v>3236139</v>
       </c>
       <c r="AY70" s="19">
-        <v>3236139</v>
+        <v>3953272</v>
       </c>
       <c r="AZ70" s="19">
-        <v>3953272</v>
+        <v>4349855</v>
       </c>
       <c r="BA70" s="19">
-        <v>4349855</v>
+        <v>4909511</v>
       </c>
       <c r="BB70" s="19">
-        <v>4909511</v>
+        <v>5680258</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9577,38 +9577,38 @@
       <c r="AQ77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="11" t="s">
-        <v>58</v>
+      <c r="AR77" s="11">
+        <v>611111</v>
       </c>
       <c r="AS77" s="11">
-        <v>611111</v>
+        <v>608696</v>
       </c>
       <c r="AT77" s="11">
-        <v>608696</v>
-      </c>
-      <c r="AU77" s="11">
         <v>602410</v>
       </c>
-      <c r="AV77" s="11" t="s">
-        <v>58</v>
+      <c r="AU77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV77" s="11">
+        <v>632310</v>
       </c>
       <c r="AW77" s="11">
-        <v>632310</v>
+        <v>632158</v>
       </c>
       <c r="AX77" s="11">
-        <v>632158</v>
+        <v>632340</v>
       </c>
       <c r="AY77" s="11">
-        <v>632340</v>
+        <v>632468</v>
       </c>
       <c r="AZ77" s="11">
-        <v>632468</v>
+        <v>1584068</v>
       </c>
       <c r="BA77" s="11">
-        <v>1584068</v>
+        <v>704874</v>
       </c>
       <c r="BB77" s="11">
-        <v>704874</v>
+        <v>572880</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9700,44 +9700,44 @@
       <c r="AE78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF78" s="13" t="s">
-        <v>58</v>
+      <c r="AF78" s="13">
+        <v>602527</v>
       </c>
       <c r="AG78" s="13">
-        <v>602527</v>
+        <v>541851</v>
       </c>
       <c r="AH78" s="13">
-        <v>541851</v>
+        <v>568779</v>
       </c>
       <c r="AI78" s="13">
-        <v>568779</v>
+        <v>579625</v>
       </c>
       <c r="AJ78" s="13">
-        <v>579625</v>
+        <v>615528</v>
       </c>
       <c r="AK78" s="13">
-        <v>615528</v>
+        <v>605450</v>
       </c>
       <c r="AL78" s="13">
-        <v>605450</v>
+        <v>547128</v>
       </c>
       <c r="AM78" s="13">
-        <v>547128</v>
+        <v>603844</v>
       </c>
       <c r="AN78" s="13">
-        <v>603844</v>
+        <v>604903</v>
       </c>
       <c r="AO78" s="13">
-        <v>604903</v>
+        <v>568216</v>
       </c>
       <c r="AP78" s="13">
-        <v>568216</v>
+        <v>601399</v>
       </c>
       <c r="AQ78" s="13">
-        <v>601399</v>
-      </c>
-      <c r="AR78" s="13">
         <v>603896</v>
+      </c>
+      <c r="AR78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS78" s="13" t="s">
         <v>58</v>
@@ -9859,44 +9859,44 @@
       <c r="AE79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF79" s="11" t="s">
-        <v>58</v>
+      <c r="AF79" s="11">
+        <v>90906</v>
       </c>
       <c r="AG79" s="11">
-        <v>90906</v>
+        <v>81221</v>
       </c>
       <c r="AH79" s="11">
-        <v>81221</v>
+        <v>85602</v>
       </c>
       <c r="AI79" s="11">
-        <v>85602</v>
+        <v>96999</v>
       </c>
       <c r="AJ79" s="11">
-        <v>96999</v>
+        <v>88526</v>
       </c>
       <c r="AK79" s="11">
-        <v>88526</v>
+        <v>89029</v>
       </c>
       <c r="AL79" s="11">
-        <v>89029</v>
+        <v>87690</v>
       </c>
       <c r="AM79" s="11">
-        <v>87690</v>
+        <v>83798</v>
       </c>
       <c r="AN79" s="11">
-        <v>83798</v>
+        <v>92042</v>
       </c>
       <c r="AO79" s="11">
-        <v>92042</v>
+        <v>93642</v>
       </c>
       <c r="AP79" s="11">
-        <v>93642</v>
+        <v>94136</v>
       </c>
       <c r="AQ79" s="11">
-        <v>94136</v>
-      </c>
-      <c r="AR79" s="11">
         <v>96235</v>
+      </c>
+      <c r="AR79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS79" s="11" t="s">
         <v>58</v>
@@ -10018,74 +10018,74 @@
       <c r="AE80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF80" s="13" t="s">
-        <v>58</v>
+      <c r="AF80" s="13">
+        <v>586468</v>
       </c>
       <c r="AG80" s="13">
-        <v>586468</v>
+        <v>645575</v>
       </c>
       <c r="AH80" s="13">
-        <v>645575</v>
+        <v>711391</v>
       </c>
       <c r="AI80" s="13">
-        <v>711391</v>
+        <v>736880</v>
       </c>
       <c r="AJ80" s="13">
-        <v>736880</v>
+        <v>655700</v>
       </c>
       <c r="AK80" s="13">
-        <v>655700</v>
+        <v>705447</v>
       </c>
       <c r="AL80" s="13">
-        <v>705447</v>
+        <v>664425</v>
       </c>
       <c r="AM80" s="13">
-        <v>664425</v>
+        <v>741118</v>
       </c>
       <c r="AN80" s="13">
-        <v>741118</v>
+        <v>550356</v>
       </c>
       <c r="AO80" s="13">
-        <v>550356</v>
+        <v>770494</v>
       </c>
       <c r="AP80" s="13">
-        <v>770494</v>
+        <v>810130</v>
       </c>
       <c r="AQ80" s="13">
-        <v>810130</v>
+        <v>854335</v>
       </c>
       <c r="AR80" s="13">
-        <v>854335</v>
+        <v>771224</v>
       </c>
       <c r="AS80" s="13">
-        <v>771224</v>
+        <v>677694</v>
       </c>
       <c r="AT80" s="13">
-        <v>677694</v>
+        <v>784398</v>
       </c>
       <c r="AU80" s="13">
-        <v>784398</v>
+        <v>1003401</v>
       </c>
       <c r="AV80" s="13">
-        <v>1003401</v>
+        <v>794890</v>
       </c>
       <c r="AW80" s="13">
-        <v>794890</v>
+        <v>1035767</v>
       </c>
       <c r="AX80" s="13">
-        <v>1035767</v>
+        <v>946353</v>
       </c>
       <c r="AY80" s="13">
-        <v>946353</v>
+        <v>1086246</v>
       </c>
       <c r="AZ80" s="13">
-        <v>1086246</v>
+        <v>1287793</v>
       </c>
       <c r="BA80" s="13">
-        <v>1287793</v>
+        <v>801982</v>
       </c>
       <c r="BB80" s="13">
-        <v>801982</v>
+        <v>1192348</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10177,74 +10177,74 @@
       <c r="AE81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF81" s="11" t="s">
-        <v>58</v>
+      <c r="AF81" s="11">
+        <v>849169</v>
       </c>
       <c r="AG81" s="11">
-        <v>849169</v>
+        <v>814198</v>
       </c>
       <c r="AH81" s="11">
-        <v>814198</v>
+        <v>880393</v>
       </c>
       <c r="AI81" s="11">
-        <v>880393</v>
+        <v>952669</v>
       </c>
       <c r="AJ81" s="11">
-        <v>952669</v>
+        <v>906939</v>
       </c>
       <c r="AK81" s="11">
-        <v>906939</v>
+        <v>974935</v>
       </c>
       <c r="AL81" s="11">
-        <v>974935</v>
+        <v>830298</v>
       </c>
       <c r="AM81" s="11">
-        <v>830298</v>
+        <v>807358</v>
       </c>
       <c r="AN81" s="11">
-        <v>807358</v>
+        <v>829821</v>
       </c>
       <c r="AO81" s="11">
-        <v>829821</v>
+        <v>879101</v>
       </c>
       <c r="AP81" s="11">
-        <v>879101</v>
+        <v>788274</v>
       </c>
       <c r="AQ81" s="11">
-        <v>788274</v>
+        <v>914407</v>
       </c>
       <c r="AR81" s="11">
-        <v>914407</v>
+        <v>815405</v>
       </c>
       <c r="AS81" s="11">
-        <v>815405</v>
+        <v>720796</v>
       </c>
       <c r="AT81" s="11">
-        <v>720796</v>
+        <v>839116</v>
       </c>
       <c r="AU81" s="11">
-        <v>839116</v>
+        <v>974841</v>
       </c>
       <c r="AV81" s="11">
-        <v>974841</v>
+        <v>1030911</v>
       </c>
       <c r="AW81" s="11">
-        <v>1030911</v>
+        <v>1065335</v>
       </c>
       <c r="AX81" s="11">
-        <v>1065335</v>
+        <v>1100646</v>
       </c>
       <c r="AY81" s="11">
-        <v>1100646</v>
+        <v>1493168</v>
       </c>
       <c r="AZ81" s="11">
-        <v>1493168</v>
+        <v>1431849</v>
       </c>
       <c r="BA81" s="11">
-        <v>1431849</v>
+        <v>1302553</v>
       </c>
       <c r="BB81" s="11">
-        <v>1302553</v>
+        <v>1521305</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10372,38 +10372,38 @@
       <c r="AQ82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR82" s="13" t="s">
-        <v>58</v>
+      <c r="AR82" s="13">
+        <v>93138</v>
       </c>
       <c r="AS82" s="13">
-        <v>93138</v>
+        <v>98344</v>
       </c>
       <c r="AT82" s="13">
-        <v>98344</v>
+        <v>104604</v>
       </c>
       <c r="AU82" s="13">
-        <v>104604</v>
+        <v>123902</v>
       </c>
       <c r="AV82" s="13">
-        <v>123902</v>
+        <v>123093</v>
       </c>
       <c r="AW82" s="13">
-        <v>123093</v>
+        <v>125251</v>
       </c>
       <c r="AX82" s="13">
-        <v>125251</v>
+        <v>127980</v>
       </c>
       <c r="AY82" s="13">
-        <v>127980</v>
+        <v>135077</v>
       </c>
       <c r="AZ82" s="13">
-        <v>135077</v>
+        <v>132702</v>
       </c>
       <c r="BA82" s="13">
-        <v>132702</v>
+        <v>131910</v>
       </c>
       <c r="BB82" s="13">
-        <v>131910</v>
+        <v>178484</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/deabid/product/monthly_seprated.xlsx
+++ b/database/industries/darou/deabid/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deabid\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9B5523-E6E5-4DAB-8B9D-3218182A58F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C5D95C-C755-40CB-B167-12266D15F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دعبید-لابراتوارداروسازی‌  دکترعبیدی‌</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1585,32 +1585,32 @@
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
-        <v>0</v>
+        <v>170889</v>
       </c>
       <c r="AV11" s="11">
-        <v>170889</v>
+        <v>47524</v>
       </c>
       <c r="AW11" s="11">
-        <v>47524</v>
+        <v>6273</v>
       </c>
       <c r="AX11" s="11">
-        <v>6273</v>
+        <v>432</v>
       </c>
       <c r="AY11" s="11">
-        <v>432</v>
+        <v>3469</v>
       </c>
       <c r="AZ11" s="11">
-        <v>3469</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
         <v>0</v>
@@ -1705,44 +1705,44 @@
       <c r="AD12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
+      <c r="AE12" s="13">
+        <v>181992</v>
       </c>
       <c r="AF12" s="13">
-        <v>181992</v>
+        <v>147483</v>
       </c>
       <c r="AG12" s="13">
-        <v>147483</v>
+        <v>56346</v>
       </c>
       <c r="AH12" s="13">
-        <v>56346</v>
+        <v>27294</v>
       </c>
       <c r="AI12" s="13">
-        <v>27294</v>
+        <v>110256</v>
       </c>
       <c r="AJ12" s="13">
-        <v>110256</v>
+        <v>145656</v>
       </c>
       <c r="AK12" s="13">
-        <v>145656</v>
+        <v>133179</v>
       </c>
       <c r="AL12" s="13">
-        <v>133179</v>
+        <v>82248</v>
       </c>
       <c r="AM12" s="13">
-        <v>82248</v>
+        <v>118200</v>
       </c>
       <c r="AN12" s="13">
-        <v>118200</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR12" s="13" t="s">
         <v>58</v>
@@ -1864,44 +1864,44 @@
       <c r="AD13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="11" t="s">
-        <v>58</v>
+      <c r="AE13" s="11">
+        <v>0</v>
       </c>
       <c r="AF13" s="11">
         <v>0</v>
       </c>
       <c r="AG13" s="11">
-        <v>0</v>
+        <v>648758</v>
       </c>
       <c r="AH13" s="11">
-        <v>648758</v>
+        <v>347225</v>
       </c>
       <c r="AI13" s="11">
-        <v>347225</v>
+        <v>400294</v>
       </c>
       <c r="AJ13" s="11">
-        <v>400294</v>
+        <v>389635</v>
       </c>
       <c r="AK13" s="11">
-        <v>389635</v>
+        <v>163886</v>
       </c>
       <c r="AL13" s="11">
-        <v>163886</v>
+        <v>782691</v>
       </c>
       <c r="AM13" s="11">
-        <v>782691</v>
+        <v>1244376</v>
       </c>
       <c r="AN13" s="11">
-        <v>1244376</v>
+        <v>1346164</v>
       </c>
       <c r="AO13" s="11">
-        <v>1346164</v>
+        <v>1177885</v>
       </c>
       <c r="AP13" s="11">
-        <v>1177885</v>
-      </c>
-      <c r="AQ13" s="11">
         <v>1315827</v>
+      </c>
+      <c r="AQ13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR13" s="11" t="s">
         <v>58</v>
@@ -2023,77 +2023,77 @@
       <c r="AD14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="13" t="s">
-        <v>58</v>
+      <c r="AE14" s="13">
+        <v>560590</v>
       </c>
       <c r="AF14" s="13">
-        <v>560590</v>
+        <v>838639</v>
       </c>
       <c r="AG14" s="13">
-        <v>838639</v>
+        <v>767371</v>
       </c>
       <c r="AH14" s="13">
-        <v>767371</v>
+        <v>632517</v>
       </c>
       <c r="AI14" s="13">
-        <v>632517</v>
+        <v>613162</v>
       </c>
       <c r="AJ14" s="13">
-        <v>613162</v>
+        <v>714062</v>
       </c>
       <c r="AK14" s="13">
-        <v>714062</v>
+        <v>661344</v>
       </c>
       <c r="AL14" s="13">
-        <v>661344</v>
+        <v>770553</v>
       </c>
       <c r="AM14" s="13">
-        <v>770553</v>
+        <v>1135161</v>
       </c>
       <c r="AN14" s="13">
-        <v>1135161</v>
+        <v>819172</v>
       </c>
       <c r="AO14" s="13">
-        <v>819172</v>
+        <v>838951</v>
       </c>
       <c r="AP14" s="13">
-        <v>838951</v>
+        <v>479861</v>
       </c>
       <c r="AQ14" s="13">
-        <v>479861</v>
+        <v>588260</v>
       </c>
       <c r="AR14" s="13">
-        <v>588260</v>
+        <v>721986</v>
       </c>
       <c r="AS14" s="13">
-        <v>721986</v>
+        <v>539519</v>
       </c>
       <c r="AT14" s="13">
-        <v>539519</v>
+        <v>404238</v>
       </c>
       <c r="AU14" s="13">
-        <v>404238</v>
+        <v>741943</v>
       </c>
       <c r="AV14" s="13">
-        <v>741943</v>
+        <v>650106</v>
       </c>
       <c r="AW14" s="13">
-        <v>650106</v>
+        <v>718497</v>
       </c>
       <c r="AX14" s="13">
-        <v>718497</v>
+        <v>566655</v>
       </c>
       <c r="AY14" s="13">
-        <v>566655</v>
+        <v>991067</v>
       </c>
       <c r="AZ14" s="13">
-        <v>991067</v>
+        <v>723241</v>
       </c>
       <c r="BA14" s="13">
-        <v>723241</v>
+        <v>881696</v>
       </c>
       <c r="BB14" s="13">
-        <v>881696</v>
+        <v>579664</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2182,77 +2182,77 @@
       <c r="AD15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>58</v>
+      <c r="AE15" s="11">
+        <v>2501078</v>
       </c>
       <c r="AF15" s="11">
-        <v>2501078</v>
+        <v>2206098</v>
       </c>
       <c r="AG15" s="11">
-        <v>2206098</v>
+        <v>2446312</v>
       </c>
       <c r="AH15" s="11">
-        <v>2446312</v>
+        <v>1153464</v>
       </c>
       <c r="AI15" s="11">
-        <v>1153464</v>
+        <v>1890019</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1890019</v>
+        <v>1928260</v>
       </c>
       <c r="AK15" s="11">
-        <v>1928260</v>
+        <v>1713709</v>
       </c>
       <c r="AL15" s="11">
-        <v>1713709</v>
+        <v>1958099</v>
       </c>
       <c r="AM15" s="11">
-        <v>1958099</v>
+        <v>1784095</v>
       </c>
       <c r="AN15" s="11">
-        <v>1784095</v>
+        <v>1713376</v>
       </c>
       <c r="AO15" s="11">
-        <v>1713376</v>
+        <v>1278960</v>
       </c>
       <c r="AP15" s="11">
-        <v>1278960</v>
+        <v>1702921</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1702921</v>
+        <v>2394727</v>
       </c>
       <c r="AR15" s="11">
-        <v>2394727</v>
+        <v>2472522</v>
       </c>
       <c r="AS15" s="11">
-        <v>2472522</v>
+        <v>2648824</v>
       </c>
       <c r="AT15" s="11">
-        <v>2648824</v>
+        <v>2467148</v>
       </c>
       <c r="AU15" s="11">
-        <v>2467148</v>
+        <v>2259761</v>
       </c>
       <c r="AV15" s="11">
-        <v>2259761</v>
+        <v>2413870</v>
       </c>
       <c r="AW15" s="11">
-        <v>2413870</v>
+        <v>3150200</v>
       </c>
       <c r="AX15" s="11">
-        <v>3150200</v>
+        <v>3041277</v>
       </c>
       <c r="AY15" s="11">
-        <v>3041277</v>
+        <v>2868961</v>
       </c>
       <c r="AZ15" s="11">
-        <v>2868961</v>
+        <v>3361887</v>
       </c>
       <c r="BA15" s="11">
-        <v>3361887</v>
+        <v>2860358</v>
       </c>
       <c r="BB15" s="11">
-        <v>2860358</v>
+        <v>3502147</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2377,41 +2377,41 @@
       <c r="AP16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>58</v>
+      <c r="AQ16" s="13">
+        <v>1585260</v>
       </c>
       <c r="AR16" s="13">
-        <v>1585260</v>
+        <v>1421117</v>
       </c>
       <c r="AS16" s="13">
-        <v>1421117</v>
+        <v>1557544</v>
       </c>
       <c r="AT16" s="13">
-        <v>1557544</v>
+        <v>1305324</v>
       </c>
       <c r="AU16" s="13">
-        <v>1305324</v>
+        <v>1503893</v>
       </c>
       <c r="AV16" s="13">
-        <v>1503893</v>
+        <v>1171549</v>
       </c>
       <c r="AW16" s="13">
-        <v>1171549</v>
+        <v>1388134</v>
       </c>
       <c r="AX16" s="13">
-        <v>1388134</v>
+        <v>1505023</v>
       </c>
       <c r="AY16" s="13">
-        <v>1505023</v>
+        <v>1602370</v>
       </c>
       <c r="AZ16" s="13">
-        <v>1602370</v>
+        <v>1522111</v>
       </c>
       <c r="BA16" s="13">
-        <v>1522111</v>
+        <v>2021194</v>
       </c>
       <c r="BB16" s="13">
-        <v>2021194</v>
+        <v>1892337</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2499,76 +2499,76 @@
         <v>0</v>
       </c>
       <c r="AE17" s="15">
-        <v>0</v>
+        <v>3243660</v>
       </c>
       <c r="AF17" s="15">
-        <v>3243660</v>
+        <v>3192220</v>
       </c>
       <c r="AG17" s="15">
-        <v>3192220</v>
+        <v>3918787</v>
       </c>
       <c r="AH17" s="15">
-        <v>3918787</v>
+        <v>2160500</v>
       </c>
       <c r="AI17" s="15">
-        <v>2160500</v>
+        <v>3013731</v>
       </c>
       <c r="AJ17" s="15">
-        <v>3013731</v>
+        <v>3177613</v>
       </c>
       <c r="AK17" s="15">
-        <v>3177613</v>
+        <v>2672118</v>
       </c>
       <c r="AL17" s="15">
-        <v>2672118</v>
+        <v>3593591</v>
       </c>
       <c r="AM17" s="15">
-        <v>3593591</v>
+        <v>4281832</v>
       </c>
       <c r="AN17" s="15">
-        <v>4281832</v>
+        <v>3878712</v>
       </c>
       <c r="AO17" s="15">
-        <v>3878712</v>
+        <v>3295796</v>
       </c>
       <c r="AP17" s="15">
-        <v>3295796</v>
+        <v>3498609</v>
       </c>
       <c r="AQ17" s="15">
-        <v>3498609</v>
+        <v>4568247</v>
       </c>
       <c r="AR17" s="15">
-        <v>4568247</v>
+        <v>4615625</v>
       </c>
       <c r="AS17" s="15">
-        <v>4615625</v>
+        <v>4745887</v>
       </c>
       <c r="AT17" s="15">
-        <v>4745887</v>
+        <v>4176710</v>
       </c>
       <c r="AU17" s="15">
-        <v>4176710</v>
+        <v>4676486</v>
       </c>
       <c r="AV17" s="15">
-        <v>4676486</v>
+        <v>4283049</v>
       </c>
       <c r="AW17" s="15">
-        <v>4283049</v>
+        <v>5263104</v>
       </c>
       <c r="AX17" s="15">
-        <v>5263104</v>
+        <v>5113387</v>
       </c>
       <c r="AY17" s="15">
-        <v>5113387</v>
+        <v>5465867</v>
       </c>
       <c r="AZ17" s="15">
-        <v>5465867</v>
+        <v>5607239</v>
       </c>
       <c r="BA17" s="15">
-        <v>5607239</v>
+        <v>5763248</v>
       </c>
       <c r="BB17" s="15">
-        <v>5763248</v>
+        <v>5974148</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -3244,8 +3244,8 @@
       <c r="AD23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE23" s="15" t="s">
-        <v>58</v>
+      <c r="AE23" s="15">
+        <v>0</v>
       </c>
       <c r="AF23" s="15">
         <v>0</v>
@@ -3402,76 +3402,76 @@
         <v>0</v>
       </c>
       <c r="AE24" s="19">
-        <v>0</v>
+        <v>3243660</v>
       </c>
       <c r="AF24" s="19">
-        <v>3243660</v>
+        <v>3192220</v>
       </c>
       <c r="AG24" s="19">
-        <v>3192220</v>
+        <v>3918787</v>
       </c>
       <c r="AH24" s="19">
-        <v>3918787</v>
+        <v>2160500</v>
       </c>
       <c r="AI24" s="19">
-        <v>2160500</v>
+        <v>3013731</v>
       </c>
       <c r="AJ24" s="19">
-        <v>3013731</v>
+        <v>3177613</v>
       </c>
       <c r="AK24" s="19">
-        <v>3177613</v>
+        <v>2672118</v>
       </c>
       <c r="AL24" s="19">
-        <v>2672118</v>
+        <v>3593591</v>
       </c>
       <c r="AM24" s="19">
-        <v>3593591</v>
+        <v>4281832</v>
       </c>
       <c r="AN24" s="19">
-        <v>4281832</v>
+        <v>3878712</v>
       </c>
       <c r="AO24" s="19">
-        <v>3878712</v>
+        <v>3295796</v>
       </c>
       <c r="AP24" s="19">
-        <v>3295796</v>
+        <v>3498609</v>
       </c>
       <c r="AQ24" s="19">
-        <v>3498609</v>
+        <v>4568247</v>
       </c>
       <c r="AR24" s="19">
-        <v>4568247</v>
+        <v>4615625</v>
       </c>
       <c r="AS24" s="19">
-        <v>4615625</v>
+        <v>4745887</v>
       </c>
       <c r="AT24" s="19">
-        <v>4745887</v>
+        <v>4176710</v>
       </c>
       <c r="AU24" s="19">
-        <v>4176710</v>
+        <v>4676486</v>
       </c>
       <c r="AV24" s="19">
-        <v>4676486</v>
+        <v>4283049</v>
       </c>
       <c r="AW24" s="19">
-        <v>4283049</v>
+        <v>5263104</v>
       </c>
       <c r="AX24" s="19">
-        <v>5263104</v>
+        <v>5113387</v>
       </c>
       <c r="AY24" s="19">
-        <v>5113387</v>
+        <v>5465867</v>
       </c>
       <c r="AZ24" s="19">
-        <v>5465867</v>
+        <v>5607239</v>
       </c>
       <c r="BA24" s="19">
-        <v>5607239</v>
+        <v>5763248</v>
       </c>
       <c r="BB24" s="19">
-        <v>5763248</v>
+        <v>5974148</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -4030,41 +4030,41 @@
       <c r="AP31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ31" s="11" t="s">
-        <v>58</v>
+      <c r="AQ31" s="11">
+        <v>54</v>
       </c>
       <c r="AR31" s="11">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="AS31" s="11">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="AT31" s="11">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="11">
-        <v>0</v>
+        <v>22092</v>
       </c>
       <c r="AV31" s="11">
-        <v>22092</v>
+        <v>5361</v>
       </c>
       <c r="AW31" s="11">
-        <v>5361</v>
+        <v>6982</v>
       </c>
       <c r="AX31" s="11">
-        <v>6982</v>
+        <v>9055</v>
       </c>
       <c r="AY31" s="11">
-        <v>9055</v>
+        <v>27127</v>
       </c>
       <c r="AZ31" s="11">
-        <v>27127</v>
+        <v>67954</v>
       </c>
       <c r="BA31" s="11">
-        <v>67954</v>
+        <v>113228</v>
       </c>
       <c r="BB31" s="11">
-        <v>113228</v>
+        <v>44703</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4153,44 +4153,44 @@
       <c r="AD32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE32" s="13" t="s">
-        <v>58</v>
+      <c r="AE32" s="13">
+        <v>8944</v>
       </c>
       <c r="AF32" s="13">
-        <v>8944</v>
+        <v>16045</v>
       </c>
       <c r="AG32" s="13">
-        <v>16045</v>
+        <v>24535</v>
       </c>
       <c r="AH32" s="13">
-        <v>24535</v>
+        <v>12741</v>
       </c>
       <c r="AI32" s="13">
-        <v>12741</v>
+        <v>27898</v>
       </c>
       <c r="AJ32" s="13">
-        <v>27898</v>
+        <v>22200</v>
       </c>
       <c r="AK32" s="13">
-        <v>22200</v>
+        <v>18906</v>
       </c>
       <c r="AL32" s="13">
-        <v>18906</v>
+        <v>22216</v>
       </c>
       <c r="AM32" s="13">
-        <v>22216</v>
+        <v>7750</v>
       </c>
       <c r="AN32" s="13">
-        <v>7750</v>
+        <v>5959</v>
       </c>
       <c r="AO32" s="13">
-        <v>5959</v>
+        <v>1144</v>
       </c>
       <c r="AP32" s="13">
-        <v>1144</v>
-      </c>
-      <c r="AQ32" s="13">
         <v>770</v>
+      </c>
+      <c r="AQ32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR32" s="13" t="s">
         <v>58</v>
@@ -4312,44 +4312,44 @@
       <c r="AD33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE33" s="11" t="s">
-        <v>58</v>
+      <c r="AE33" s="11">
+        <v>285868</v>
       </c>
       <c r="AF33" s="11">
-        <v>285868</v>
+        <v>447174</v>
       </c>
       <c r="AG33" s="11">
-        <v>447174</v>
+        <v>473283</v>
       </c>
       <c r="AH33" s="11">
-        <v>473283</v>
+        <v>430385</v>
       </c>
       <c r="AI33" s="11">
-        <v>430385</v>
+        <v>409438</v>
       </c>
       <c r="AJ33" s="11">
-        <v>409438</v>
+        <v>434565</v>
       </c>
       <c r="AK33" s="11">
-        <v>434565</v>
+        <v>579071</v>
       </c>
       <c r="AL33" s="11">
-        <v>579071</v>
+        <v>1017576</v>
       </c>
       <c r="AM33" s="11">
-        <v>1017576</v>
+        <v>882545</v>
       </c>
       <c r="AN33" s="11">
-        <v>882545</v>
+        <v>888176</v>
       </c>
       <c r="AO33" s="11">
-        <v>888176</v>
+        <v>1743227</v>
       </c>
       <c r="AP33" s="11">
-        <v>1743227</v>
-      </c>
-      <c r="AQ33" s="11">
         <v>1426828</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR33" s="11" t="s">
         <v>58</v>
@@ -4471,77 +4471,77 @@
       <c r="AD34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE34" s="13" t="s">
-        <v>58</v>
+      <c r="AE34" s="13">
+        <v>467528</v>
       </c>
       <c r="AF34" s="13">
-        <v>467528</v>
+        <v>587126</v>
       </c>
       <c r="AG34" s="13">
-        <v>587126</v>
+        <v>618410</v>
       </c>
       <c r="AH34" s="13">
-        <v>618410</v>
+        <v>290689</v>
       </c>
       <c r="AI34" s="13">
-        <v>290689</v>
+        <v>604996</v>
       </c>
       <c r="AJ34" s="13">
-        <v>604996</v>
+        <v>597149</v>
       </c>
       <c r="AK34" s="13">
-        <v>597149</v>
+        <v>624677</v>
       </c>
       <c r="AL34" s="13">
-        <v>624677</v>
+        <v>592899</v>
       </c>
       <c r="AM34" s="13">
-        <v>592899</v>
+        <v>1180222</v>
       </c>
       <c r="AN34" s="13">
-        <v>1180222</v>
+        <v>484775</v>
       </c>
       <c r="AO34" s="13">
-        <v>484775</v>
+        <v>660278</v>
       </c>
       <c r="AP34" s="13">
-        <v>660278</v>
+        <v>654112</v>
       </c>
       <c r="AQ34" s="13">
-        <v>654112</v>
+        <v>549674</v>
       </c>
       <c r="AR34" s="13">
-        <v>549674</v>
+        <v>770343</v>
       </c>
       <c r="AS34" s="13">
-        <v>770343</v>
+        <v>584600</v>
       </c>
       <c r="AT34" s="13">
-        <v>584600</v>
+        <v>505100</v>
       </c>
       <c r="AU34" s="13">
-        <v>505100</v>
+        <v>764278</v>
       </c>
       <c r="AV34" s="13">
-        <v>764278</v>
+        <v>652335</v>
       </c>
       <c r="AW34" s="13">
-        <v>652335</v>
+        <v>800196</v>
       </c>
       <c r="AX34" s="13">
-        <v>800196</v>
+        <v>604770</v>
       </c>
       <c r="AY34" s="13">
-        <v>604770</v>
+        <v>599261</v>
       </c>
       <c r="AZ34" s="13">
-        <v>599261</v>
+        <v>818718</v>
       </c>
       <c r="BA34" s="13">
-        <v>818718</v>
+        <v>591590</v>
       </c>
       <c r="BB34" s="13">
-        <v>591590</v>
+        <v>670271</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4630,77 +4630,77 @@
       <c r="AD35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE35" s="11" t="s">
-        <v>58</v>
+      <c r="AE35" s="11">
+        <v>1098306</v>
       </c>
       <c r="AF35" s="11">
-        <v>1098306</v>
+        <v>1325890</v>
       </c>
       <c r="AG35" s="11">
-        <v>1325890</v>
+        <v>1484449</v>
       </c>
       <c r="AH35" s="11">
-        <v>1484449</v>
+        <v>878485</v>
       </c>
       <c r="AI35" s="11">
-        <v>878485</v>
+        <v>1373375</v>
       </c>
       <c r="AJ35" s="11">
-        <v>1373375</v>
+        <v>1241736</v>
       </c>
       <c r="AK35" s="11">
-        <v>1241736</v>
+        <v>1725798</v>
       </c>
       <c r="AL35" s="11">
-        <v>1725798</v>
+        <v>2041833</v>
       </c>
       <c r="AM35" s="11">
-        <v>2041833</v>
+        <v>2496537</v>
       </c>
       <c r="AN35" s="11">
-        <v>2496537</v>
+        <v>1915831</v>
       </c>
       <c r="AO35" s="11">
-        <v>1915831</v>
+        <v>2466074</v>
       </c>
       <c r="AP35" s="11">
-        <v>2466074</v>
+        <v>2349339</v>
       </c>
       <c r="AQ35" s="11">
-        <v>2349339</v>
+        <v>2161640</v>
       </c>
       <c r="AR35" s="11">
-        <v>2161640</v>
+        <v>3298955</v>
       </c>
       <c r="AS35" s="11">
-        <v>3298955</v>
+        <v>2668062</v>
       </c>
       <c r="AT35" s="11">
-        <v>2668062</v>
+        <v>1737915</v>
       </c>
       <c r="AU35" s="11">
-        <v>1737915</v>
+        <v>2369428</v>
       </c>
       <c r="AV35" s="11">
-        <v>2369428</v>
+        <v>2318179</v>
       </c>
       <c r="AW35" s="11">
-        <v>2318179</v>
+        <v>2353065</v>
       </c>
       <c r="AX35" s="11">
-        <v>2353065</v>
+        <v>2319043</v>
       </c>
       <c r="AY35" s="11">
-        <v>2319043</v>
+        <v>2644829</v>
       </c>
       <c r="AZ35" s="11">
-        <v>2644829</v>
+        <v>3332828</v>
       </c>
       <c r="BA35" s="11">
-        <v>3332828</v>
+        <v>3208570</v>
       </c>
       <c r="BB35" s="11">
-        <v>3208570</v>
+        <v>2778600</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4825,41 +4825,41 @@
       <c r="AP36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ36" s="13" t="s">
-        <v>58</v>
+      <c r="AQ36" s="13">
+        <v>1420484</v>
       </c>
       <c r="AR36" s="13">
-        <v>1420484</v>
+        <v>2038343</v>
       </c>
       <c r="AS36" s="13">
-        <v>2038343</v>
+        <v>877845</v>
       </c>
       <c r="AT36" s="13">
-        <v>877845</v>
+        <v>1173513</v>
       </c>
       <c r="AU36" s="13">
-        <v>1173513</v>
+        <v>1932014</v>
       </c>
       <c r="AV36" s="13">
-        <v>1932014</v>
+        <v>1301217</v>
       </c>
       <c r="AW36" s="13">
-        <v>1301217</v>
+        <v>1254593</v>
       </c>
       <c r="AX36" s="13">
-        <v>1254593</v>
+        <v>1141767</v>
       </c>
       <c r="AY36" s="13">
-        <v>1141767</v>
+        <v>1155716</v>
       </c>
       <c r="AZ36" s="13">
-        <v>1155716</v>
+        <v>2570354</v>
       </c>
       <c r="BA36" s="13">
-        <v>2570354</v>
+        <v>2499780</v>
       </c>
       <c r="BB36" s="13">
-        <v>2499780</v>
+        <v>1954756</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4947,76 +4947,76 @@
         <v>0</v>
       </c>
       <c r="AE37" s="15">
-        <v>0</v>
+        <v>1860646</v>
       </c>
       <c r="AF37" s="15">
-        <v>1860646</v>
+        <v>2376235</v>
       </c>
       <c r="AG37" s="15">
-        <v>2376235</v>
+        <v>2600677</v>
       </c>
       <c r="AH37" s="15">
-        <v>2600677</v>
+        <v>1612300</v>
       </c>
       <c r="AI37" s="15">
-        <v>1612300</v>
+        <v>2415707</v>
       </c>
       <c r="AJ37" s="15">
-        <v>2415707</v>
+        <v>2295650</v>
       </c>
       <c r="AK37" s="15">
-        <v>2295650</v>
+        <v>2948452</v>
       </c>
       <c r="AL37" s="15">
-        <v>2948452</v>
+        <v>3674524</v>
       </c>
       <c r="AM37" s="15">
-        <v>3674524</v>
+        <v>4567054</v>
       </c>
       <c r="AN37" s="15">
-        <v>4567054</v>
+        <v>3294741</v>
       </c>
       <c r="AO37" s="15">
-        <v>3294741</v>
+        <v>4870723</v>
       </c>
       <c r="AP37" s="15">
-        <v>4870723</v>
+        <v>4431049</v>
       </c>
       <c r="AQ37" s="15">
-        <v>4431049</v>
+        <v>4131852</v>
       </c>
       <c r="AR37" s="15">
-        <v>4131852</v>
+        <v>6107802</v>
       </c>
       <c r="AS37" s="15">
-        <v>6107802</v>
+        <v>4130590</v>
       </c>
       <c r="AT37" s="15">
-        <v>4130590</v>
+        <v>3416528</v>
       </c>
       <c r="AU37" s="15">
-        <v>3416528</v>
+        <v>5087812</v>
       </c>
       <c r="AV37" s="15">
-        <v>5087812</v>
+        <v>4277092</v>
       </c>
       <c r="AW37" s="15">
-        <v>4277092</v>
+        <v>4414836</v>
       </c>
       <c r="AX37" s="15">
-        <v>4414836</v>
+        <v>4074635</v>
       </c>
       <c r="AY37" s="15">
-        <v>4074635</v>
+        <v>4426933</v>
       </c>
       <c r="AZ37" s="15">
-        <v>4426933</v>
+        <v>6789854</v>
       </c>
       <c r="BA37" s="15">
-        <v>6789854</v>
+        <v>6413168</v>
       </c>
       <c r="BB37" s="15">
-        <v>6413168</v>
+        <v>5448330</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5692,8 +5692,8 @@
       <c r="AD43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" s="15" t="s">
-        <v>58</v>
+      <c r="AE43" s="15">
+        <v>0</v>
       </c>
       <c r="AF43" s="15">
         <v>0</v>
@@ -5906,8 +5906,8 @@
       <c r="AD45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE45" s="15" t="s">
-        <v>58</v>
+      <c r="AE45" s="15">
+        <v>0</v>
       </c>
       <c r="AF45" s="15">
         <v>0</v>
@@ -6064,76 +6064,76 @@
         <v>0</v>
       </c>
       <c r="AE46" s="19">
-        <v>0</v>
+        <v>1860646</v>
       </c>
       <c r="AF46" s="19">
-        <v>1860646</v>
+        <v>2376235</v>
       </c>
       <c r="AG46" s="19">
-        <v>2376235</v>
+        <v>2600677</v>
       </c>
       <c r="AH46" s="19">
-        <v>2600677</v>
+        <v>1612300</v>
       </c>
       <c r="AI46" s="19">
-        <v>1612300</v>
+        <v>2415707</v>
       </c>
       <c r="AJ46" s="19">
-        <v>2415707</v>
+        <v>2295650</v>
       </c>
       <c r="AK46" s="19">
-        <v>2295650</v>
+        <v>2948452</v>
       </c>
       <c r="AL46" s="19">
-        <v>2948452</v>
+        <v>3674524</v>
       </c>
       <c r="AM46" s="19">
-        <v>3674524</v>
+        <v>4567054</v>
       </c>
       <c r="AN46" s="19">
-        <v>4567054</v>
+        <v>3294741</v>
       </c>
       <c r="AO46" s="19">
-        <v>3294741</v>
+        <v>4870723</v>
       </c>
       <c r="AP46" s="19">
-        <v>4870723</v>
+        <v>4431049</v>
       </c>
       <c r="AQ46" s="19">
-        <v>4431049</v>
+        <v>4131852</v>
       </c>
       <c r="AR46" s="19">
-        <v>4131852</v>
+        <v>6107802</v>
       </c>
       <c r="AS46" s="19">
-        <v>6107802</v>
+        <v>4130590</v>
       </c>
       <c r="AT46" s="19">
-        <v>4130590</v>
+        <v>3416528</v>
       </c>
       <c r="AU46" s="19">
-        <v>3416528</v>
+        <v>5087812</v>
       </c>
       <c r="AV46" s="19">
-        <v>5087812</v>
+        <v>4277092</v>
       </c>
       <c r="AW46" s="19">
-        <v>4277092</v>
+        <v>4414836</v>
       </c>
       <c r="AX46" s="19">
-        <v>4414836</v>
+        <v>4074635</v>
       </c>
       <c r="AY46" s="19">
-        <v>4074635</v>
+        <v>4426933</v>
       </c>
       <c r="AZ46" s="19">
-        <v>4426933</v>
+        <v>6789854</v>
       </c>
       <c r="BA46" s="19">
-        <v>6789854</v>
+        <v>6413168</v>
       </c>
       <c r="BB46" s="19">
-        <v>6413168</v>
+        <v>5448330</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6692,41 +6692,41 @@
       <c r="AP53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ53" s="11" t="s">
-        <v>58</v>
+      <c r="AQ53" s="11">
+        <v>33</v>
       </c>
       <c r="AR53" s="11">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="AS53" s="11">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="AT53" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="11">
-        <v>0</v>
+        <v>13969</v>
       </c>
       <c r="AV53" s="11">
-        <v>13969</v>
+        <v>3389</v>
       </c>
       <c r="AW53" s="11">
-        <v>3389</v>
+        <v>4415</v>
       </c>
       <c r="AX53" s="11">
-        <v>4415</v>
+        <v>5727</v>
       </c>
       <c r="AY53" s="11">
-        <v>5727</v>
+        <v>42971</v>
       </c>
       <c r="AZ53" s="11">
-        <v>42971</v>
+        <v>47899</v>
       </c>
       <c r="BA53" s="11">
-        <v>47899</v>
+        <v>64866</v>
       </c>
       <c r="BB53" s="11">
-        <v>64866</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6815,44 +6815,44 @@
       <c r="AD54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE54" s="13" t="s">
-        <v>58</v>
+      <c r="AE54" s="13">
+        <v>5389</v>
       </c>
       <c r="AF54" s="13">
-        <v>5389</v>
+        <v>8694</v>
       </c>
       <c r="AG54" s="13">
-        <v>8694</v>
+        <v>13955</v>
       </c>
       <c r="AH54" s="13">
-        <v>13955</v>
+        <v>7385</v>
       </c>
       <c r="AI54" s="13">
-        <v>7385</v>
+        <v>17172</v>
       </c>
       <c r="AJ54" s="13">
-        <v>17172</v>
+        <v>13441</v>
       </c>
       <c r="AK54" s="13">
-        <v>13441</v>
+        <v>10344</v>
       </c>
       <c r="AL54" s="13">
-        <v>10344</v>
+        <v>13415</v>
       </c>
       <c r="AM54" s="13">
-        <v>13415</v>
+        <v>4688</v>
       </c>
       <c r="AN54" s="13">
-        <v>4688</v>
+        <v>3386</v>
       </c>
       <c r="AO54" s="13">
-        <v>3386</v>
+        <v>688</v>
       </c>
       <c r="AP54" s="13">
-        <v>688</v>
-      </c>
-      <c r="AQ54" s="13">
         <v>465</v>
+      </c>
+      <c r="AQ54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR54" s="13" t="s">
         <v>58</v>
@@ -6974,44 +6974,44 @@
       <c r="AD55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE55" s="11" t="s">
-        <v>58</v>
+      <c r="AE55" s="11">
+        <v>25987</v>
       </c>
       <c r="AF55" s="11">
-        <v>25987</v>
+        <v>36320</v>
       </c>
       <c r="AG55" s="11">
-        <v>36320</v>
+        <v>40514</v>
       </c>
       <c r="AH55" s="11">
-        <v>40514</v>
+        <v>41747</v>
       </c>
       <c r="AI55" s="11">
-        <v>41747</v>
+        <v>36246</v>
       </c>
       <c r="AJ55" s="11">
-        <v>36246</v>
+        <v>38689</v>
       </c>
       <c r="AK55" s="11">
-        <v>38689</v>
+        <v>50779</v>
       </c>
       <c r="AL55" s="11">
-        <v>50779</v>
+        <v>85271</v>
       </c>
       <c r="AM55" s="11">
-        <v>85271</v>
+        <v>81231</v>
       </c>
       <c r="AN55" s="11">
-        <v>81231</v>
+        <v>83171</v>
       </c>
       <c r="AO55" s="11">
-        <v>83171</v>
+        <v>164100</v>
       </c>
       <c r="AP55" s="11">
-        <v>164100</v>
-      </c>
-      <c r="AQ55" s="11">
         <v>137311</v>
+      </c>
+      <c r="AQ55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR55" s="11" t="s">
         <v>58</v>
@@ -7133,77 +7133,77 @@
       <c r="AD56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE56" s="13" t="s">
-        <v>58</v>
+      <c r="AE56" s="13">
+        <v>274190</v>
       </c>
       <c r="AF56" s="13">
-        <v>274190</v>
+        <v>379034</v>
       </c>
       <c r="AG56" s="13">
-        <v>379034</v>
+        <v>439931</v>
       </c>
       <c r="AH56" s="13">
-        <v>439931</v>
+        <v>214203</v>
       </c>
       <c r="AI56" s="13">
-        <v>214203</v>
+        <v>396696</v>
       </c>
       <c r="AJ56" s="13">
-        <v>396696</v>
+        <v>421257</v>
       </c>
       <c r="AK56" s="13">
-        <v>421257</v>
+        <v>415051</v>
       </c>
       <c r="AL56" s="13">
-        <v>415051</v>
+        <v>439408</v>
       </c>
       <c r="AM56" s="13">
-        <v>439408</v>
+        <v>649542</v>
       </c>
       <c r="AN56" s="13">
-        <v>649542</v>
+        <v>373516</v>
       </c>
       <c r="AO56" s="13">
-        <v>373516</v>
+        <v>534911</v>
       </c>
       <c r="AP56" s="13">
-        <v>534911</v>
+        <v>558831</v>
       </c>
       <c r="AQ56" s="13">
-        <v>558831</v>
+        <v>423922</v>
       </c>
       <c r="AR56" s="13">
-        <v>423922</v>
+        <v>522057</v>
       </c>
       <c r="AS56" s="13">
-        <v>522057</v>
+        <v>458559</v>
       </c>
       <c r="AT56" s="13">
-        <v>458559</v>
+        <v>506818</v>
       </c>
       <c r="AU56" s="13">
-        <v>506818</v>
+        <v>607517</v>
       </c>
       <c r="AV56" s="13">
-        <v>607517</v>
+        <v>675667</v>
       </c>
       <c r="AW56" s="13">
-        <v>675667</v>
+        <v>757268</v>
       </c>
       <c r="AX56" s="13">
-        <v>757268</v>
+        <v>656929</v>
       </c>
       <c r="AY56" s="13">
-        <v>656929</v>
+        <v>771724</v>
       </c>
       <c r="AZ56" s="13">
-        <v>771724</v>
+        <v>656597</v>
       </c>
       <c r="BA56" s="13">
-        <v>656597</v>
+        <v>705381</v>
       </c>
       <c r="BB56" s="13">
-        <v>705381</v>
+        <v>824204</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7292,77 +7292,77 @@
       <c r="AD57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE57" s="11" t="s">
-        <v>58</v>
+      <c r="AE57" s="11">
+        <v>932647</v>
       </c>
       <c r="AF57" s="11">
-        <v>932647</v>
+        <v>1079537</v>
       </c>
       <c r="AG57" s="11">
-        <v>1079537</v>
+        <v>1306898</v>
       </c>
       <c r="AH57" s="11">
-        <v>1306898</v>
+        <v>836905</v>
       </c>
       <c r="AI57" s="11">
-        <v>836905</v>
+        <v>1245568</v>
       </c>
       <c r="AJ57" s="11">
-        <v>1245568</v>
+        <v>1210612</v>
       </c>
       <c r="AK57" s="11">
-        <v>1210612</v>
+        <v>1432926</v>
       </c>
       <c r="AL57" s="11">
-        <v>1432926</v>
+        <v>1648490</v>
       </c>
       <c r="AM57" s="11">
-        <v>1648490</v>
+        <v>2071678</v>
       </c>
       <c r="AN57" s="11">
-        <v>2071678</v>
+        <v>1684209</v>
       </c>
       <c r="AO57" s="11">
-        <v>1684209</v>
+        <v>1943942</v>
       </c>
       <c r="AP57" s="11">
-        <v>1943942</v>
+        <v>2148252</v>
       </c>
       <c r="AQ57" s="11">
-        <v>2148252</v>
+        <v>1762613</v>
       </c>
       <c r="AR57" s="11">
-        <v>1762613</v>
+        <v>2377872</v>
       </c>
       <c r="AS57" s="11">
-        <v>2377872</v>
+        <v>2238813</v>
       </c>
       <c r="AT57" s="11">
-        <v>2238813</v>
+        <v>1694191</v>
       </c>
       <c r="AU57" s="11">
-        <v>1694191</v>
+        <v>2442669</v>
       </c>
       <c r="AV57" s="11">
-        <v>2442669</v>
+        <v>2469638</v>
       </c>
       <c r="AW57" s="11">
-        <v>2469638</v>
+        <v>2589891</v>
       </c>
       <c r="AX57" s="11">
-        <v>2589891</v>
+        <v>3462720</v>
       </c>
       <c r="AY57" s="11">
-        <v>3462720</v>
+        <v>3786997</v>
       </c>
       <c r="AZ57" s="11">
-        <v>3786997</v>
+        <v>4341185</v>
       </c>
       <c r="BA57" s="11">
-        <v>4341185</v>
+        <v>4881214</v>
       </c>
       <c r="BB57" s="11">
-        <v>4881214</v>
+        <v>4660790</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7487,41 +7487,41 @@
       <c r="AP58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ58" s="13" t="s">
-        <v>58</v>
+      <c r="AQ58" s="13">
+        <v>132301</v>
       </c>
       <c r="AR58" s="13">
-        <v>132301</v>
+        <v>200459</v>
       </c>
       <c r="AS58" s="13">
-        <v>200459</v>
+        <v>91826</v>
       </c>
       <c r="AT58" s="13">
-        <v>91826</v>
+        <v>145401</v>
       </c>
       <c r="AU58" s="13">
-        <v>145401</v>
+        <v>237817</v>
       </c>
       <c r="AV58" s="13">
-        <v>237817</v>
+        <v>162979</v>
       </c>
       <c r="AW58" s="13">
-        <v>162979</v>
+        <v>160563</v>
       </c>
       <c r="AX58" s="13">
-        <v>160563</v>
+        <v>154226</v>
       </c>
       <c r="AY58" s="13">
-        <v>154226</v>
+        <v>153366</v>
       </c>
       <c r="AZ58" s="13">
-        <v>153366</v>
+        <v>339055</v>
       </c>
       <c r="BA58" s="13">
-        <v>339055</v>
+        <v>446171</v>
       </c>
       <c r="BB58" s="13">
-        <v>446171</v>
+        <v>359620</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7609,76 +7609,76 @@
         <v>0</v>
       </c>
       <c r="AE59" s="15">
-        <v>0</v>
+        <v>1238213</v>
       </c>
       <c r="AF59" s="15">
-        <v>1238213</v>
+        <v>1503585</v>
       </c>
       <c r="AG59" s="15">
-        <v>1503585</v>
+        <v>1801298</v>
       </c>
       <c r="AH59" s="15">
-        <v>1801298</v>
+        <v>1100240</v>
       </c>
       <c r="AI59" s="15">
-        <v>1100240</v>
+        <v>1695682</v>
       </c>
       <c r="AJ59" s="15">
-        <v>1695682</v>
+        <v>1683999</v>
       </c>
       <c r="AK59" s="15">
-        <v>1683999</v>
+        <v>1909100</v>
       </c>
       <c r="AL59" s="15">
-        <v>1909100</v>
+        <v>2186584</v>
       </c>
       <c r="AM59" s="15">
-        <v>2186584</v>
+        <v>2807139</v>
       </c>
       <c r="AN59" s="15">
-        <v>2807139</v>
+        <v>2144282</v>
       </c>
       <c r="AO59" s="15">
-        <v>2144282</v>
+        <v>2643641</v>
       </c>
       <c r="AP59" s="15">
-        <v>2643641</v>
+        <v>2844859</v>
       </c>
       <c r="AQ59" s="15">
-        <v>2844859</v>
+        <v>2318869</v>
       </c>
       <c r="AR59" s="15">
-        <v>2318869</v>
+        <v>3100486</v>
       </c>
       <c r="AS59" s="15">
-        <v>3100486</v>
+        <v>2789248</v>
       </c>
       <c r="AT59" s="15">
-        <v>2789248</v>
+        <v>2346410</v>
       </c>
       <c r="AU59" s="15">
-        <v>2346410</v>
+        <v>3301972</v>
       </c>
       <c r="AV59" s="15">
-        <v>3301972</v>
+        <v>3311673</v>
       </c>
       <c r="AW59" s="15">
-        <v>3311673</v>
+        <v>3512137</v>
       </c>
       <c r="AX59" s="15">
-        <v>3512137</v>
+        <v>4279602</v>
       </c>
       <c r="AY59" s="15">
-        <v>4279602</v>
+        <v>4755058</v>
       </c>
       <c r="AZ59" s="15">
-        <v>4755058</v>
+        <v>5384736</v>
       </c>
       <c r="BA59" s="15">
-        <v>5384736</v>
+        <v>6097632</v>
       </c>
       <c r="BB59" s="15">
-        <v>6097632</v>
+        <v>5890114</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7860,11 +7860,11 @@
       <c r="AP61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR61" s="11">
-        <v>0</v>
+      <c r="AQ61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS61" s="11" t="s">
         <v>58</v>
@@ -8019,11 +8019,11 @@
       <c r="AP62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR62" s="13">
-        <v>0</v>
+      <c r="AQ62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS62" s="13" t="s">
         <v>58</v>
@@ -8356,8 +8356,8 @@
       <c r="AD65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE65" s="15" t="s">
-        <v>58</v>
+      <c r="AE65" s="15">
+        <v>0</v>
       </c>
       <c r="AF65" s="15">
         <v>0</v>
@@ -8572,8 +8572,8 @@
       <c r="AD67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE67" s="15" t="s">
-        <v>58</v>
+      <c r="AE67" s="15">
+        <v>0</v>
       </c>
       <c r="AF67" s="15">
         <v>0</v>
@@ -8788,8 +8788,8 @@
       <c r="AD69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE69" s="11" t="s">
-        <v>58</v>
+      <c r="AE69" s="11">
+        <v>0</v>
       </c>
       <c r="AF69" s="11">
         <v>0</v>
@@ -8834,31 +8834,31 @@
         <v>0</v>
       </c>
       <c r="AT69" s="11">
-        <v>0</v>
+        <v>-222689</v>
       </c>
       <c r="AU69" s="11">
-        <v>-222689</v>
+        <v>-282220</v>
       </c>
       <c r="AV69" s="11">
-        <v>-282220</v>
+        <v>-298449</v>
       </c>
       <c r="AW69" s="11">
-        <v>-298449</v>
+        <v>-275998</v>
       </c>
       <c r="AX69" s="11">
-        <v>-275998</v>
+        <v>-326330</v>
       </c>
       <c r="AY69" s="11">
-        <v>-326330</v>
+        <v>-405203</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-405203</v>
+        <v>-475225</v>
       </c>
       <c r="BA69" s="11">
-        <v>-475225</v>
+        <v>-417374</v>
       </c>
       <c r="BB69" s="11">
-        <v>-417374</v>
+        <v>-363051</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8946,76 +8946,76 @@
         <v>0</v>
       </c>
       <c r="AE70" s="19">
-        <v>0</v>
+        <v>1238213</v>
       </c>
       <c r="AF70" s="19">
-        <v>1238213</v>
+        <v>1503585</v>
       </c>
       <c r="AG70" s="19">
-        <v>1503585</v>
+        <v>1801298</v>
       </c>
       <c r="AH70" s="19">
-        <v>1801298</v>
+        <v>1100240</v>
       </c>
       <c r="AI70" s="19">
-        <v>1100240</v>
+        <v>1695682</v>
       </c>
       <c r="AJ70" s="19">
-        <v>1695682</v>
+        <v>1683999</v>
       </c>
       <c r="AK70" s="19">
-        <v>1683999</v>
+        <v>1909100</v>
       </c>
       <c r="AL70" s="19">
-        <v>1909100</v>
+        <v>2186584</v>
       </c>
       <c r="AM70" s="19">
-        <v>2186584</v>
+        <v>2807139</v>
       </c>
       <c r="AN70" s="19">
-        <v>2807139</v>
+        <v>2144282</v>
       </c>
       <c r="AO70" s="19">
-        <v>2144282</v>
+        <v>2643641</v>
       </c>
       <c r="AP70" s="19">
-        <v>2643641</v>
+        <v>2844859</v>
       </c>
       <c r="AQ70" s="19">
-        <v>2844859</v>
+        <v>2318869</v>
       </c>
       <c r="AR70" s="19">
-        <v>2318869</v>
+        <v>3100486</v>
       </c>
       <c r="AS70" s="19">
-        <v>3100486</v>
+        <v>2789248</v>
       </c>
       <c r="AT70" s="19">
-        <v>2789248</v>
+        <v>2123721</v>
       </c>
       <c r="AU70" s="19">
-        <v>2123721</v>
+        <v>3019752</v>
       </c>
       <c r="AV70" s="19">
-        <v>3019752</v>
+        <v>3013224</v>
       </c>
       <c r="AW70" s="19">
-        <v>3013224</v>
+        <v>3236139</v>
       </c>
       <c r="AX70" s="19">
-        <v>3236139</v>
+        <v>3953272</v>
       </c>
       <c r="AY70" s="19">
-        <v>3953272</v>
+        <v>4349855</v>
       </c>
       <c r="AZ70" s="19">
-        <v>4349855</v>
+        <v>4909511</v>
       </c>
       <c r="BA70" s="19">
-        <v>4909511</v>
+        <v>5680258</v>
       </c>
       <c r="BB70" s="19">
-        <v>5680258</v>
+        <v>5527063</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9574,41 +9574,41 @@
       <c r="AP77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ77" s="11" t="s">
-        <v>58</v>
+      <c r="AQ77" s="11">
+        <v>611111</v>
       </c>
       <c r="AR77" s="11">
-        <v>611111</v>
+        <v>608696</v>
       </c>
       <c r="AS77" s="11">
-        <v>608696</v>
-      </c>
-      <c r="AT77" s="11">
         <v>602410</v>
       </c>
-      <c r="AU77" s="11" t="s">
-        <v>58</v>
+      <c r="AT77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU77" s="11">
+        <v>632310</v>
       </c>
       <c r="AV77" s="11">
-        <v>632310</v>
+        <v>632158</v>
       </c>
       <c r="AW77" s="11">
-        <v>632158</v>
+        <v>632340</v>
       </c>
       <c r="AX77" s="11">
-        <v>632340</v>
+        <v>632468</v>
       </c>
       <c r="AY77" s="11">
-        <v>632468</v>
+        <v>1584068</v>
       </c>
       <c r="AZ77" s="11">
-        <v>1584068</v>
+        <v>704874</v>
       </c>
       <c r="BA77" s="11">
-        <v>704874</v>
+        <v>572880</v>
       </c>
       <c r="BB77" s="11">
-        <v>572880</v>
+        <v>1017829</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9697,44 +9697,44 @@
       <c r="AD78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE78" s="13" t="s">
-        <v>58</v>
+      <c r="AE78" s="13">
+        <v>602527</v>
       </c>
       <c r="AF78" s="13">
-        <v>602527</v>
+        <v>541851</v>
       </c>
       <c r="AG78" s="13">
-        <v>541851</v>
+        <v>568779</v>
       </c>
       <c r="AH78" s="13">
-        <v>568779</v>
+        <v>579625</v>
       </c>
       <c r="AI78" s="13">
-        <v>579625</v>
+        <v>615528</v>
       </c>
       <c r="AJ78" s="13">
-        <v>615528</v>
+        <v>605450</v>
       </c>
       <c r="AK78" s="13">
-        <v>605450</v>
+        <v>547128</v>
       </c>
       <c r="AL78" s="13">
-        <v>547128</v>
+        <v>603844</v>
       </c>
       <c r="AM78" s="13">
-        <v>603844</v>
+        <v>604903</v>
       </c>
       <c r="AN78" s="13">
-        <v>604903</v>
+        <v>568216</v>
       </c>
       <c r="AO78" s="13">
-        <v>568216</v>
+        <v>601399</v>
       </c>
       <c r="AP78" s="13">
-        <v>601399</v>
-      </c>
-      <c r="AQ78" s="13">
         <v>603896</v>
+      </c>
+      <c r="AQ78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR78" s="13" t="s">
         <v>58</v>
@@ -9856,44 +9856,44 @@
       <c r="AD79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE79" s="11" t="s">
-        <v>58</v>
+      <c r="AE79" s="11">
+        <v>90906</v>
       </c>
       <c r="AF79" s="11">
-        <v>90906</v>
+        <v>81221</v>
       </c>
       <c r="AG79" s="11">
-        <v>81221</v>
+        <v>85602</v>
       </c>
       <c r="AH79" s="11">
-        <v>85602</v>
+        <v>96999</v>
       </c>
       <c r="AI79" s="11">
-        <v>96999</v>
+        <v>88526</v>
       </c>
       <c r="AJ79" s="11">
-        <v>88526</v>
+        <v>89029</v>
       </c>
       <c r="AK79" s="11">
-        <v>89029</v>
+        <v>87690</v>
       </c>
       <c r="AL79" s="11">
-        <v>87690</v>
+        <v>83798</v>
       </c>
       <c r="AM79" s="11">
-        <v>83798</v>
+        <v>92042</v>
       </c>
       <c r="AN79" s="11">
-        <v>92042</v>
+        <v>93642</v>
       </c>
       <c r="AO79" s="11">
-        <v>93642</v>
+        <v>94136</v>
       </c>
       <c r="AP79" s="11">
-        <v>94136</v>
-      </c>
-      <c r="AQ79" s="11">
         <v>96235</v>
+      </c>
+      <c r="AQ79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR79" s="11" t="s">
         <v>58</v>
@@ -10015,77 +10015,77 @@
       <c r="AD80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE80" s="13" t="s">
-        <v>58</v>
+      <c r="AE80" s="13">
+        <v>586468</v>
       </c>
       <c r="AF80" s="13">
-        <v>586468</v>
+        <v>645575</v>
       </c>
       <c r="AG80" s="13">
-        <v>645575</v>
+        <v>711391</v>
       </c>
       <c r="AH80" s="13">
-        <v>711391</v>
+        <v>736880</v>
       </c>
       <c r="AI80" s="13">
-        <v>736880</v>
+        <v>655700</v>
       </c>
       <c r="AJ80" s="13">
-        <v>655700</v>
+        <v>705447</v>
       </c>
       <c r="AK80" s="13">
-        <v>705447</v>
+        <v>664425</v>
       </c>
       <c r="AL80" s="13">
-        <v>664425</v>
+        <v>741118</v>
       </c>
       <c r="AM80" s="13">
-        <v>741118</v>
+        <v>550356</v>
       </c>
       <c r="AN80" s="13">
-        <v>550356</v>
+        <v>770494</v>
       </c>
       <c r="AO80" s="13">
-        <v>770494</v>
+        <v>810130</v>
       </c>
       <c r="AP80" s="13">
-        <v>810130</v>
+        <v>854335</v>
       </c>
       <c r="AQ80" s="13">
-        <v>854335</v>
+        <v>771224</v>
       </c>
       <c r="AR80" s="13">
-        <v>771224</v>
+        <v>677694</v>
       </c>
       <c r="AS80" s="13">
-        <v>677694</v>
+        <v>784398</v>
       </c>
       <c r="AT80" s="13">
-        <v>784398</v>
+        <v>1003401</v>
       </c>
       <c r="AU80" s="13">
-        <v>1003401</v>
+        <v>794890</v>
       </c>
       <c r="AV80" s="13">
-        <v>794890</v>
+        <v>1035767</v>
       </c>
       <c r="AW80" s="13">
-        <v>1035767</v>
+        <v>946353</v>
       </c>
       <c r="AX80" s="13">
-        <v>946353</v>
+        <v>1086246</v>
       </c>
       <c r="AY80" s="13">
-        <v>1086246</v>
+        <v>1287793</v>
       </c>
       <c r="AZ80" s="13">
-        <v>1287793</v>
+        <v>801982</v>
       </c>
       <c r="BA80" s="13">
-        <v>801982</v>
+        <v>1192348</v>
       </c>
       <c r="BB80" s="13">
-        <v>1192348</v>
+        <v>1229658</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10174,77 +10174,77 @@
       <c r="AD81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE81" s="11" t="s">
-        <v>58</v>
+      <c r="AE81" s="11">
+        <v>849169</v>
       </c>
       <c r="AF81" s="11">
-        <v>849169</v>
+        <v>814198</v>
       </c>
       <c r="AG81" s="11">
-        <v>814198</v>
+        <v>880393</v>
       </c>
       <c r="AH81" s="11">
-        <v>880393</v>
+        <v>952669</v>
       </c>
       <c r="AI81" s="11">
-        <v>952669</v>
+        <v>906939</v>
       </c>
       <c r="AJ81" s="11">
-        <v>906939</v>
+        <v>974935</v>
       </c>
       <c r="AK81" s="11">
-        <v>974935</v>
+        <v>830298</v>
       </c>
       <c r="AL81" s="11">
-        <v>830298</v>
+        <v>807358</v>
       </c>
       <c r="AM81" s="11">
-        <v>807358</v>
+        <v>829821</v>
       </c>
       <c r="AN81" s="11">
-        <v>829821</v>
+        <v>879101</v>
       </c>
       <c r="AO81" s="11">
-        <v>879101</v>
+        <v>788274</v>
       </c>
       <c r="AP81" s="11">
-        <v>788274</v>
+        <v>914407</v>
       </c>
       <c r="AQ81" s="11">
-        <v>914407</v>
+        <v>815405</v>
       </c>
       <c r="AR81" s="11">
-        <v>815405</v>
+        <v>720796</v>
       </c>
       <c r="AS81" s="11">
-        <v>720796</v>
+        <v>839116</v>
       </c>
       <c r="AT81" s="11">
-        <v>839116</v>
+        <v>974841</v>
       </c>
       <c r="AU81" s="11">
-        <v>974841</v>
+        <v>1030911</v>
       </c>
       <c r="AV81" s="11">
-        <v>1030911</v>
+        <v>1065335</v>
       </c>
       <c r="AW81" s="11">
-        <v>1065335</v>
+        <v>1100646</v>
       </c>
       <c r="AX81" s="11">
-        <v>1100646</v>
+        <v>1493168</v>
       </c>
       <c r="AY81" s="11">
-        <v>1493168</v>
+        <v>1431849</v>
       </c>
       <c r="AZ81" s="11">
-        <v>1431849</v>
+        <v>1302553</v>
       </c>
       <c r="BA81" s="11">
-        <v>1302553</v>
+        <v>1521305</v>
       </c>
       <c r="BB81" s="11">
-        <v>1521305</v>
+        <v>1677388</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10369,41 +10369,41 @@
       <c r="AP82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ82" s="13" t="s">
-        <v>58</v>
+      <c r="AQ82" s="13">
+        <v>93138</v>
       </c>
       <c r="AR82" s="13">
-        <v>93138</v>
+        <v>98344</v>
       </c>
       <c r="AS82" s="13">
-        <v>98344</v>
+        <v>104604</v>
       </c>
       <c r="AT82" s="13">
-        <v>104604</v>
+        <v>123902</v>
       </c>
       <c r="AU82" s="13">
-        <v>123902</v>
+        <v>123093</v>
       </c>
       <c r="AV82" s="13">
-        <v>123093</v>
+        <v>125251</v>
       </c>
       <c r="AW82" s="13">
-        <v>125251</v>
+        <v>127980</v>
       </c>
       <c r="AX82" s="13">
-        <v>127980</v>
+        <v>135077</v>
       </c>
       <c r="AY82" s="13">
-        <v>135077</v>
+        <v>132702</v>
       </c>
       <c r="AZ82" s="13">
-        <v>132702</v>
+        <v>131910</v>
       </c>
       <c r="BA82" s="13">
-        <v>131910</v>
+        <v>178484</v>
       </c>
       <c r="BB82" s="13">
-        <v>178484</v>
+        <v>183972</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/deabid/product/monthly_seprated.xlsx
+++ b/database/industries/darou/deabid/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deabid\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C5D95C-C755-40CB-B167-12266D15F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F5045C-8EEB-4ACD-B906-D1F3F662EC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -793,12 +793,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -853,7 +853,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1579,8 +1579,8 @@
       <c r="AO11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP11" s="11" t="s">
-        <v>58</v>
+      <c r="AP11" s="11">
+        <v>0</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>58</v>
@@ -1588,26 +1588,26 @@
       <c r="AR11" s="11">
         <v>0</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
+      <c r="AS11" s="11">
+        <v>170889</v>
       </c>
       <c r="AT11" s="11">
-        <v>0</v>
+        <v>47524</v>
       </c>
       <c r="AU11" s="11">
-        <v>170889</v>
+        <v>6273</v>
       </c>
       <c r="AV11" s="11">
-        <v>47524</v>
+        <v>432</v>
       </c>
       <c r="AW11" s="11">
-        <v>6273</v>
+        <v>3469</v>
       </c>
       <c r="AX11" s="11">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="11">
-        <v>3469</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="11">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1699,38 +1699,38 @@
       <c r="AB12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>58</v>
+      <c r="AC12" s="13">
+        <v>181992</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>147483</v>
       </c>
       <c r="AE12" s="13">
-        <v>181992</v>
+        <v>56346</v>
       </c>
       <c r="AF12" s="13">
-        <v>147483</v>
+        <v>27294</v>
       </c>
       <c r="AG12" s="13">
-        <v>56346</v>
+        <v>110256</v>
       </c>
       <c r="AH12" s="13">
-        <v>27294</v>
+        <v>145656</v>
       </c>
       <c r="AI12" s="13">
-        <v>110256</v>
+        <v>133179</v>
       </c>
       <c r="AJ12" s="13">
-        <v>145656</v>
+        <v>82248</v>
       </c>
       <c r="AK12" s="13">
-        <v>133179</v>
+        <v>118200</v>
       </c>
       <c r="AL12" s="13">
-        <v>82248</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>118200</v>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN12" s="13">
         <v>0</v>
@@ -1738,8 +1738,8 @@
       <c r="AO12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP12" s="13">
-        <v>0</v>
+      <c r="AP12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ12" s="13" t="s">
         <v>58</v>
@@ -1778,7 +1778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>61</v>
       </c>
@@ -1858,48 +1858,48 @@
       <c r="AB13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>58</v>
+      <c r="AC13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>0</v>
+        <v>648758</v>
       </c>
       <c r="AF13" s="11">
-        <v>0</v>
+        <v>347225</v>
       </c>
       <c r="AG13" s="11">
-        <v>648758</v>
+        <v>400294</v>
       </c>
       <c r="AH13" s="11">
-        <v>347225</v>
+        <v>389635</v>
       </c>
       <c r="AI13" s="11">
-        <v>400294</v>
+        <v>163886</v>
       </c>
       <c r="AJ13" s="11">
-        <v>389635</v>
+        <v>782691</v>
       </c>
       <c r="AK13" s="11">
-        <v>163886</v>
+        <v>1244376</v>
       </c>
       <c r="AL13" s="11">
-        <v>782691</v>
+        <v>1346164</v>
       </c>
       <c r="AM13" s="11">
-        <v>1244376</v>
+        <v>1177885</v>
       </c>
       <c r="AN13" s="11">
-        <v>1346164</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>1177885</v>
-      </c>
-      <c r="AP13" s="11">
         <v>1315827</v>
       </c>
+      <c r="AO13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>63</v>
       </c>
@@ -2017,86 +2017,86 @@
       <c r="AB14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD14" s="13" t="s">
-        <v>58</v>
+      <c r="AC14" s="13">
+        <v>560590</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>838639</v>
       </c>
       <c r="AE14" s="13">
-        <v>560590</v>
+        <v>767371</v>
       </c>
       <c r="AF14" s="13">
-        <v>838639</v>
+        <v>632517</v>
       </c>
       <c r="AG14" s="13">
-        <v>767371</v>
+        <v>613162</v>
       </c>
       <c r="AH14" s="13">
-        <v>632517</v>
+        <v>714062</v>
       </c>
       <c r="AI14" s="13">
-        <v>613162</v>
+        <v>661344</v>
       </c>
       <c r="AJ14" s="13">
-        <v>714062</v>
+        <v>770553</v>
       </c>
       <c r="AK14" s="13">
-        <v>661344</v>
+        <v>1135161</v>
       </c>
       <c r="AL14" s="13">
-        <v>770553</v>
+        <v>819172</v>
       </c>
       <c r="AM14" s="13">
-        <v>1135161</v>
+        <v>838951</v>
       </c>
       <c r="AN14" s="13">
-        <v>819172</v>
+        <v>479861</v>
       </c>
       <c r="AO14" s="13">
-        <v>838951</v>
+        <v>588260</v>
       </c>
       <c r="AP14" s="13">
-        <v>479861</v>
+        <v>721986</v>
       </c>
       <c r="AQ14" s="13">
-        <v>588260</v>
+        <v>539519</v>
       </c>
       <c r="AR14" s="13">
-        <v>721986</v>
+        <v>404238</v>
       </c>
       <c r="AS14" s="13">
-        <v>539519</v>
+        <v>741943</v>
       </c>
       <c r="AT14" s="13">
-        <v>404238</v>
+        <v>650106</v>
       </c>
       <c r="AU14" s="13">
-        <v>741943</v>
+        <v>718497</v>
       </c>
       <c r="AV14" s="13">
-        <v>650106</v>
+        <v>566655</v>
       </c>
       <c r="AW14" s="13">
-        <v>718497</v>
+        <v>991067</v>
       </c>
       <c r="AX14" s="13">
-        <v>566655</v>
+        <v>723241</v>
       </c>
       <c r="AY14" s="13">
-        <v>991067</v>
+        <v>881696</v>
       </c>
       <c r="AZ14" s="13">
-        <v>723241</v>
+        <v>579664</v>
       </c>
       <c r="BA14" s="13">
-        <v>881696</v>
+        <v>747778</v>
       </c>
       <c r="BB14" s="13">
-        <v>579664</v>
+        <v>610131</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>65</v>
       </c>
@@ -2176,86 +2176,86 @@
       <c r="AB15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>58</v>
+      <c r="AC15" s="11">
+        <v>2501078</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>2206098</v>
       </c>
       <c r="AE15" s="11">
-        <v>2501078</v>
+        <v>2446312</v>
       </c>
       <c r="AF15" s="11">
-        <v>2206098</v>
+        <v>1153464</v>
       </c>
       <c r="AG15" s="11">
-        <v>2446312</v>
+        <v>1890019</v>
       </c>
       <c r="AH15" s="11">
-        <v>1153464</v>
+        <v>1928260</v>
       </c>
       <c r="AI15" s="11">
-        <v>1890019</v>
+        <v>1713709</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1928260</v>
+        <v>1958099</v>
       </c>
       <c r="AK15" s="11">
-        <v>1713709</v>
+        <v>1784095</v>
       </c>
       <c r="AL15" s="11">
-        <v>1958099</v>
+        <v>1713376</v>
       </c>
       <c r="AM15" s="11">
-        <v>1784095</v>
+        <v>1278960</v>
       </c>
       <c r="AN15" s="11">
-        <v>1713376</v>
+        <v>1702921</v>
       </c>
       <c r="AO15" s="11">
-        <v>1278960</v>
+        <v>2394727</v>
       </c>
       <c r="AP15" s="11">
-        <v>1702921</v>
+        <v>2472522</v>
       </c>
       <c r="AQ15" s="11">
-        <v>2394727</v>
+        <v>2648824</v>
       </c>
       <c r="AR15" s="11">
-        <v>2472522</v>
+        <v>2467148</v>
       </c>
       <c r="AS15" s="11">
-        <v>2648824</v>
+        <v>2259761</v>
       </c>
       <c r="AT15" s="11">
-        <v>2467148</v>
+        <v>2413870</v>
       </c>
       <c r="AU15" s="11">
-        <v>2259761</v>
+        <v>3150200</v>
       </c>
       <c r="AV15" s="11">
-        <v>2413870</v>
+        <v>3041277</v>
       </c>
       <c r="AW15" s="11">
-        <v>3150200</v>
+        <v>2868961</v>
       </c>
       <c r="AX15" s="11">
-        <v>3041277</v>
+        <v>3361887</v>
       </c>
       <c r="AY15" s="11">
-        <v>2868961</v>
+        <v>2860358</v>
       </c>
       <c r="AZ15" s="11">
-        <v>3361887</v>
+        <v>3502147</v>
       </c>
       <c r="BA15" s="11">
-        <v>2860358</v>
+        <v>3485676</v>
       </c>
       <c r="BB15" s="11">
-        <v>3502147</v>
+        <v>3605136</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>66</v>
       </c>
@@ -2371,50 +2371,50 @@
       <c r="AN16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP16" s="13" t="s">
-        <v>58</v>
+      <c r="AO16" s="13">
+        <v>1585260</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>1421117</v>
       </c>
       <c r="AQ16" s="13">
-        <v>1585260</v>
+        <v>1557544</v>
       </c>
       <c r="AR16" s="13">
-        <v>1421117</v>
+        <v>1305324</v>
       </c>
       <c r="AS16" s="13">
-        <v>1557544</v>
+        <v>1503893</v>
       </c>
       <c r="AT16" s="13">
-        <v>1305324</v>
+        <v>1171549</v>
       </c>
       <c r="AU16" s="13">
-        <v>1503893</v>
+        <v>1388134</v>
       </c>
       <c r="AV16" s="13">
-        <v>1171549</v>
+        <v>1505023</v>
       </c>
       <c r="AW16" s="13">
-        <v>1388134</v>
+        <v>1602370</v>
       </c>
       <c r="AX16" s="13">
-        <v>1505023</v>
+        <v>1522111</v>
       </c>
       <c r="AY16" s="13">
-        <v>1602370</v>
+        <v>2021194</v>
       </c>
       <c r="AZ16" s="13">
-        <v>1522111</v>
+        <v>1892337</v>
       </c>
       <c r="BA16" s="13">
-        <v>2021194</v>
+        <v>1987806</v>
       </c>
       <c r="BB16" s="13">
-        <v>1892337</v>
+        <v>1949079</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>68</v>
       </c>
@@ -2493,85 +2493,85 @@
         <v>0</v>
       </c>
       <c r="AC17" s="15">
-        <v>0</v>
+        <v>3243660</v>
       </c>
       <c r="AD17" s="15">
-        <v>0</v>
+        <v>3192220</v>
       </c>
       <c r="AE17" s="15">
-        <v>3243660</v>
+        <v>3918787</v>
       </c>
       <c r="AF17" s="15">
-        <v>3192220</v>
+        <v>2160500</v>
       </c>
       <c r="AG17" s="15">
-        <v>3918787</v>
+        <v>3013731</v>
       </c>
       <c r="AH17" s="15">
-        <v>2160500</v>
+        <v>3177613</v>
       </c>
       <c r="AI17" s="15">
-        <v>3013731</v>
+        <v>2672118</v>
       </c>
       <c r="AJ17" s="15">
-        <v>3177613</v>
+        <v>3593591</v>
       </c>
       <c r="AK17" s="15">
-        <v>2672118</v>
+        <v>4281832</v>
       </c>
       <c r="AL17" s="15">
-        <v>3593591</v>
+        <v>3878712</v>
       </c>
       <c r="AM17" s="15">
-        <v>4281832</v>
+        <v>3295796</v>
       </c>
       <c r="AN17" s="15">
-        <v>3878712</v>
+        <v>3498609</v>
       </c>
       <c r="AO17" s="15">
-        <v>3295796</v>
+        <v>4568247</v>
       </c>
       <c r="AP17" s="15">
-        <v>3498609</v>
+        <v>4615625</v>
       </c>
       <c r="AQ17" s="15">
-        <v>4568247</v>
+        <v>4745887</v>
       </c>
       <c r="AR17" s="15">
-        <v>4615625</v>
+        <v>4176710</v>
       </c>
       <c r="AS17" s="15">
-        <v>4745887</v>
+        <v>4676486</v>
       </c>
       <c r="AT17" s="15">
-        <v>4176710</v>
+        <v>4283049</v>
       </c>
       <c r="AU17" s="15">
-        <v>4676486</v>
+        <v>5263104</v>
       </c>
       <c r="AV17" s="15">
-        <v>4283049</v>
+        <v>5113387</v>
       </c>
       <c r="AW17" s="15">
-        <v>5263104</v>
+        <v>5465867</v>
       </c>
       <c r="AX17" s="15">
-        <v>5113387</v>
+        <v>5607239</v>
       </c>
       <c r="AY17" s="15">
-        <v>5465867</v>
+        <v>5763248</v>
       </c>
       <c r="AZ17" s="15">
-        <v>5607239</v>
+        <v>5974148</v>
       </c>
       <c r="BA17" s="15">
-        <v>5763248</v>
+        <v>6221260</v>
       </c>
       <c r="BB17" s="15">
-        <v>5974148</v>
+        <v>6164346</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>69</v>
       </c>
@@ -2628,7 +2628,7 @@
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>63</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>65</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>71</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>72</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>73</v>
       </c>
@@ -3238,11 +3238,11 @@
       <c r="AB23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD23" s="15" t="s">
-        <v>58</v>
+      <c r="AC23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>0</v>
       </c>
       <c r="AE23" s="15">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>74</v>
       </c>
@@ -3396,85 +3396,85 @@
         <v>0</v>
       </c>
       <c r="AC24" s="19">
-        <v>0</v>
+        <v>3243660</v>
       </c>
       <c r="AD24" s="19">
-        <v>0</v>
+        <v>3192220</v>
       </c>
       <c r="AE24" s="19">
-        <v>3243660</v>
+        <v>3918787</v>
       </c>
       <c r="AF24" s="19">
-        <v>3192220</v>
+        <v>2160500</v>
       </c>
       <c r="AG24" s="19">
-        <v>3918787</v>
+        <v>3013731</v>
       </c>
       <c r="AH24" s="19">
-        <v>2160500</v>
+        <v>3177613</v>
       </c>
       <c r="AI24" s="19">
-        <v>3013731</v>
+        <v>2672118</v>
       </c>
       <c r="AJ24" s="19">
-        <v>3177613</v>
+        <v>3593591</v>
       </c>
       <c r="AK24" s="19">
-        <v>2672118</v>
+        <v>4281832</v>
       </c>
       <c r="AL24" s="19">
-        <v>3593591</v>
+        <v>3878712</v>
       </c>
       <c r="AM24" s="19">
-        <v>4281832</v>
+        <v>3295796</v>
       </c>
       <c r="AN24" s="19">
-        <v>3878712</v>
+        <v>3498609</v>
       </c>
       <c r="AO24" s="19">
-        <v>3295796</v>
+        <v>4568247</v>
       </c>
       <c r="AP24" s="19">
-        <v>3498609</v>
+        <v>4615625</v>
       </c>
       <c r="AQ24" s="19">
-        <v>4568247</v>
+        <v>4745887</v>
       </c>
       <c r="AR24" s="19">
-        <v>4615625</v>
+        <v>4176710</v>
       </c>
       <c r="AS24" s="19">
-        <v>4745887</v>
+        <v>4676486</v>
       </c>
       <c r="AT24" s="19">
-        <v>4176710</v>
+        <v>4283049</v>
       </c>
       <c r="AU24" s="19">
-        <v>4676486</v>
+        <v>5263104</v>
       </c>
       <c r="AV24" s="19">
-        <v>4283049</v>
+        <v>5113387</v>
       </c>
       <c r="AW24" s="19">
-        <v>5263104</v>
+        <v>5465867</v>
       </c>
       <c r="AX24" s="19">
-        <v>5113387</v>
+        <v>5607239</v>
       </c>
       <c r="AY24" s="19">
-        <v>5465867</v>
+        <v>5763248</v>
       </c>
       <c r="AZ24" s="19">
-        <v>5607239</v>
+        <v>5974148</v>
       </c>
       <c r="BA24" s="19">
-        <v>5763248</v>
+        <v>6221260</v>
       </c>
       <c r="BB24" s="19">
-        <v>5974148</v>
+        <v>6164346</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3529,7 +3529,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3584,7 +3584,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3639,7 +3639,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>75</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3851,7 +3851,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>76</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -4024,50 +4024,50 @@
       <c r="AN31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP31" s="11" t="s">
-        <v>58</v>
+      <c r="AO31" s="11">
+        <v>54</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>161</v>
       </c>
       <c r="AQ31" s="11">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="AR31" s="11">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="11">
-        <v>83</v>
+        <v>22092</v>
       </c>
       <c r="AT31" s="11">
-        <v>0</v>
+        <v>5361</v>
       </c>
       <c r="AU31" s="11">
-        <v>22092</v>
+        <v>6982</v>
       </c>
       <c r="AV31" s="11">
-        <v>5361</v>
+        <v>9055</v>
       </c>
       <c r="AW31" s="11">
-        <v>6982</v>
+        <v>27127</v>
       </c>
       <c r="AX31" s="11">
-        <v>9055</v>
+        <v>67954</v>
       </c>
       <c r="AY31" s="11">
-        <v>27127</v>
+        <v>113228</v>
       </c>
       <c r="AZ31" s="11">
-        <v>67954</v>
+        <v>44703</v>
       </c>
       <c r="BA31" s="11">
-        <v>113228</v>
+        <v>28637</v>
       </c>
       <c r="BB31" s="11">
-        <v>44703</v>
+        <v>87929</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4147,48 +4147,48 @@
       <c r="AB32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD32" s="13" t="s">
-        <v>58</v>
+      <c r="AC32" s="13">
+        <v>8944</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>16045</v>
       </c>
       <c r="AE32" s="13">
-        <v>8944</v>
+        <v>24535</v>
       </c>
       <c r="AF32" s="13">
-        <v>16045</v>
+        <v>12741</v>
       </c>
       <c r="AG32" s="13">
-        <v>24535</v>
+        <v>27898</v>
       </c>
       <c r="AH32" s="13">
-        <v>12741</v>
+        <v>22200</v>
       </c>
       <c r="AI32" s="13">
-        <v>27898</v>
+        <v>18906</v>
       </c>
       <c r="AJ32" s="13">
-        <v>22200</v>
+        <v>22216</v>
       </c>
       <c r="AK32" s="13">
-        <v>18906</v>
+        <v>7750</v>
       </c>
       <c r="AL32" s="13">
-        <v>22216</v>
+        <v>5959</v>
       </c>
       <c r="AM32" s="13">
-        <v>7750</v>
+        <v>1144</v>
       </c>
       <c r="AN32" s="13">
-        <v>5959</v>
-      </c>
-      <c r="AO32" s="13">
-        <v>1144</v>
-      </c>
-      <c r="AP32" s="13">
         <v>770</v>
       </c>
+      <c r="AO32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>61</v>
       </c>
@@ -4306,48 +4306,48 @@
       <c r="AB33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD33" s="11" t="s">
-        <v>58</v>
+      <c r="AC33" s="11">
+        <v>285868</v>
+      </c>
+      <c r="AD33" s="11">
+        <v>447174</v>
       </c>
       <c r="AE33" s="11">
-        <v>285868</v>
+        <v>473283</v>
       </c>
       <c r="AF33" s="11">
-        <v>447174</v>
+        <v>430385</v>
       </c>
       <c r="AG33" s="11">
-        <v>473283</v>
+        <v>409438</v>
       </c>
       <c r="AH33" s="11">
-        <v>430385</v>
+        <v>434565</v>
       </c>
       <c r="AI33" s="11">
-        <v>409438</v>
+        <v>579071</v>
       </c>
       <c r="AJ33" s="11">
-        <v>434565</v>
+        <v>1017576</v>
       </c>
       <c r="AK33" s="11">
-        <v>579071</v>
+        <v>882545</v>
       </c>
       <c r="AL33" s="11">
-        <v>1017576</v>
+        <v>888176</v>
       </c>
       <c r="AM33" s="11">
-        <v>882545</v>
+        <v>1743227</v>
       </c>
       <c r="AN33" s="11">
-        <v>888176</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>1743227</v>
-      </c>
-      <c r="AP33" s="11">
         <v>1426828</v>
       </c>
+      <c r="AO33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>63</v>
       </c>
@@ -4465,86 +4465,86 @@
       <c r="AB34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD34" s="13" t="s">
-        <v>58</v>
+      <c r="AC34" s="13">
+        <v>467528</v>
+      </c>
+      <c r="AD34" s="13">
+        <v>587126</v>
       </c>
       <c r="AE34" s="13">
-        <v>467528</v>
+        <v>618410</v>
       </c>
       <c r="AF34" s="13">
-        <v>587126</v>
+        <v>290689</v>
       </c>
       <c r="AG34" s="13">
-        <v>618410</v>
+        <v>604996</v>
       </c>
       <c r="AH34" s="13">
-        <v>290689</v>
+        <v>597149</v>
       </c>
       <c r="AI34" s="13">
-        <v>604996</v>
+        <v>624677</v>
       </c>
       <c r="AJ34" s="13">
-        <v>597149</v>
+        <v>592899</v>
       </c>
       <c r="AK34" s="13">
-        <v>624677</v>
+        <v>1180222</v>
       </c>
       <c r="AL34" s="13">
-        <v>592899</v>
+        <v>484775</v>
       </c>
       <c r="AM34" s="13">
-        <v>1180222</v>
+        <v>660278</v>
       </c>
       <c r="AN34" s="13">
-        <v>484775</v>
+        <v>654112</v>
       </c>
       <c r="AO34" s="13">
-        <v>660278</v>
+        <v>549674</v>
       </c>
       <c r="AP34" s="13">
-        <v>654112</v>
+        <v>770343</v>
       </c>
       <c r="AQ34" s="13">
-        <v>549674</v>
+        <v>584600</v>
       </c>
       <c r="AR34" s="13">
-        <v>770343</v>
+        <v>505100</v>
       </c>
       <c r="AS34" s="13">
-        <v>584600</v>
+        <v>764278</v>
       </c>
       <c r="AT34" s="13">
-        <v>505100</v>
+        <v>652335</v>
       </c>
       <c r="AU34" s="13">
-        <v>764278</v>
+        <v>800196</v>
       </c>
       <c r="AV34" s="13">
-        <v>652335</v>
+        <v>604770</v>
       </c>
       <c r="AW34" s="13">
-        <v>800196</v>
+        <v>599261</v>
       </c>
       <c r="AX34" s="13">
-        <v>604770</v>
+        <v>818718</v>
       </c>
       <c r="AY34" s="13">
-        <v>599261</v>
+        <v>591590</v>
       </c>
       <c r="AZ34" s="13">
-        <v>818718</v>
+        <v>670271</v>
       </c>
       <c r="BA34" s="13">
-        <v>591590</v>
+        <v>597369</v>
       </c>
       <c r="BB34" s="13">
-        <v>670271</v>
+        <v>507652</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>65</v>
       </c>
@@ -4624,86 +4624,86 @@
       <c r="AB35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD35" s="11" t="s">
-        <v>58</v>
+      <c r="AC35" s="11">
+        <v>1098306</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>1325890</v>
       </c>
       <c r="AE35" s="11">
-        <v>1098306</v>
+        <v>1484449</v>
       </c>
       <c r="AF35" s="11">
-        <v>1325890</v>
+        <v>878485</v>
       </c>
       <c r="AG35" s="11">
-        <v>1484449</v>
+        <v>1373375</v>
       </c>
       <c r="AH35" s="11">
-        <v>878485</v>
+        <v>1241736</v>
       </c>
       <c r="AI35" s="11">
-        <v>1373375</v>
+        <v>1725798</v>
       </c>
       <c r="AJ35" s="11">
-        <v>1241736</v>
+        <v>2041833</v>
       </c>
       <c r="AK35" s="11">
-        <v>1725798</v>
+        <v>2496537</v>
       </c>
       <c r="AL35" s="11">
-        <v>2041833</v>
+        <v>1915831</v>
       </c>
       <c r="AM35" s="11">
-        <v>2496537</v>
+        <v>2466074</v>
       </c>
       <c r="AN35" s="11">
-        <v>1915831</v>
+        <v>2349339</v>
       </c>
       <c r="AO35" s="11">
-        <v>2466074</v>
+        <v>2161640</v>
       </c>
       <c r="AP35" s="11">
-        <v>2349339</v>
+        <v>3298955</v>
       </c>
       <c r="AQ35" s="11">
-        <v>2161640</v>
+        <v>2668062</v>
       </c>
       <c r="AR35" s="11">
-        <v>3298955</v>
+        <v>1737915</v>
       </c>
       <c r="AS35" s="11">
-        <v>2668062</v>
+        <v>2369428</v>
       </c>
       <c r="AT35" s="11">
-        <v>1737915</v>
+        <v>2318179</v>
       </c>
       <c r="AU35" s="11">
-        <v>2369428</v>
+        <v>2353065</v>
       </c>
       <c r="AV35" s="11">
-        <v>2318179</v>
+        <v>2319043</v>
       </c>
       <c r="AW35" s="11">
-        <v>2353065</v>
+        <v>2644829</v>
       </c>
       <c r="AX35" s="11">
-        <v>2319043</v>
+        <v>3332828</v>
       </c>
       <c r="AY35" s="11">
-        <v>2644829</v>
+        <v>3208570</v>
       </c>
       <c r="AZ35" s="11">
-        <v>3332828</v>
+        <v>2778600</v>
       </c>
       <c r="BA35" s="11">
-        <v>3208570</v>
+        <v>2801604</v>
       </c>
       <c r="BB35" s="11">
-        <v>2778600</v>
+        <v>2382631</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>66</v>
       </c>
@@ -4819,50 +4819,50 @@
       <c r="AN36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP36" s="13" t="s">
-        <v>58</v>
+      <c r="AO36" s="13">
+        <v>1420484</v>
+      </c>
+      <c r="AP36" s="13">
+        <v>2038343</v>
       </c>
       <c r="AQ36" s="13">
-        <v>1420484</v>
+        <v>877845</v>
       </c>
       <c r="AR36" s="13">
-        <v>2038343</v>
+        <v>1173513</v>
       </c>
       <c r="AS36" s="13">
-        <v>877845</v>
+        <v>1932014</v>
       </c>
       <c r="AT36" s="13">
-        <v>1173513</v>
+        <v>1301217</v>
       </c>
       <c r="AU36" s="13">
-        <v>1932014</v>
+        <v>1254593</v>
       </c>
       <c r="AV36" s="13">
-        <v>1301217</v>
+        <v>1141767</v>
       </c>
       <c r="AW36" s="13">
-        <v>1254593</v>
+        <v>1155716</v>
       </c>
       <c r="AX36" s="13">
-        <v>1141767</v>
+        <v>2570354</v>
       </c>
       <c r="AY36" s="13">
-        <v>1155716</v>
+        <v>2499780</v>
       </c>
       <c r="AZ36" s="13">
-        <v>2570354</v>
+        <v>1954756</v>
       </c>
       <c r="BA36" s="13">
-        <v>2499780</v>
+        <v>1490569</v>
       </c>
       <c r="BB36" s="13">
-        <v>1954756</v>
+        <v>1541666</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>77</v>
       </c>
@@ -4941,85 +4941,85 @@
         <v>0</v>
       </c>
       <c r="AC37" s="15">
-        <v>0</v>
+        <v>1860646</v>
       </c>
       <c r="AD37" s="15">
-        <v>0</v>
+        <v>2376235</v>
       </c>
       <c r="AE37" s="15">
-        <v>1860646</v>
+        <v>2600677</v>
       </c>
       <c r="AF37" s="15">
-        <v>2376235</v>
+        <v>1612300</v>
       </c>
       <c r="AG37" s="15">
-        <v>2600677</v>
+        <v>2415707</v>
       </c>
       <c r="AH37" s="15">
-        <v>1612300</v>
+        <v>2295650</v>
       </c>
       <c r="AI37" s="15">
-        <v>2415707</v>
+        <v>2948452</v>
       </c>
       <c r="AJ37" s="15">
-        <v>2295650</v>
+        <v>3674524</v>
       </c>
       <c r="AK37" s="15">
-        <v>2948452</v>
+        <v>4567054</v>
       </c>
       <c r="AL37" s="15">
-        <v>3674524</v>
+        <v>3294741</v>
       </c>
       <c r="AM37" s="15">
-        <v>4567054</v>
+        <v>4870723</v>
       </c>
       <c r="AN37" s="15">
-        <v>3294741</v>
+        <v>4431049</v>
       </c>
       <c r="AO37" s="15">
-        <v>4870723</v>
+        <v>4131852</v>
       </c>
       <c r="AP37" s="15">
-        <v>4431049</v>
+        <v>6107802</v>
       </c>
       <c r="AQ37" s="15">
-        <v>4131852</v>
+        <v>4130590</v>
       </c>
       <c r="AR37" s="15">
-        <v>6107802</v>
+        <v>3416528</v>
       </c>
       <c r="AS37" s="15">
-        <v>4130590</v>
+        <v>5087812</v>
       </c>
       <c r="AT37" s="15">
-        <v>3416528</v>
+        <v>4277092</v>
       </c>
       <c r="AU37" s="15">
-        <v>5087812</v>
+        <v>4414836</v>
       </c>
       <c r="AV37" s="15">
-        <v>4277092</v>
+        <v>4074635</v>
       </c>
       <c r="AW37" s="15">
-        <v>4414836</v>
+        <v>4426933</v>
       </c>
       <c r="AX37" s="15">
-        <v>4074635</v>
+        <v>6789854</v>
       </c>
       <c r="AY37" s="15">
-        <v>4426933</v>
+        <v>6413168</v>
       </c>
       <c r="AZ37" s="15">
-        <v>6789854</v>
+        <v>5448330</v>
       </c>
       <c r="BA37" s="15">
-        <v>6413168</v>
+        <v>4918179</v>
       </c>
       <c r="BB37" s="15">
-        <v>5448330</v>
+        <v>4519878</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>78</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>65</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>79</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>72</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>73</v>
       </c>
@@ -5686,11 +5686,11 @@
       <c r="AB43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD43" s="15" t="s">
-        <v>58</v>
+      <c r="AC43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="15">
+        <v>0</v>
       </c>
       <c r="AE43" s="15">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>80</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>81</v>
       </c>
@@ -5900,11 +5900,11 @@
       <c r="AB45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD45" s="15" t="s">
-        <v>58</v>
+      <c r="AC45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="15">
+        <v>0</v>
       </c>
       <c r="AE45" s="15">
         <v>0</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>74</v>
       </c>
@@ -6058,85 +6058,85 @@
         <v>0</v>
       </c>
       <c r="AC46" s="19">
-        <v>0</v>
+        <v>1860646</v>
       </c>
       <c r="AD46" s="19">
-        <v>0</v>
+        <v>2376235</v>
       </c>
       <c r="AE46" s="19">
-        <v>1860646</v>
+        <v>2600677</v>
       </c>
       <c r="AF46" s="19">
-        <v>2376235</v>
+        <v>1612300</v>
       </c>
       <c r="AG46" s="19">
-        <v>2600677</v>
+        <v>2415707</v>
       </c>
       <c r="AH46" s="19">
-        <v>1612300</v>
+        <v>2295650</v>
       </c>
       <c r="AI46" s="19">
-        <v>2415707</v>
+        <v>2948452</v>
       </c>
       <c r="AJ46" s="19">
-        <v>2295650</v>
+        <v>3674524</v>
       </c>
       <c r="AK46" s="19">
-        <v>2948452</v>
+        <v>4567054</v>
       </c>
       <c r="AL46" s="19">
-        <v>3674524</v>
+        <v>3294741</v>
       </c>
       <c r="AM46" s="19">
-        <v>4567054</v>
+        <v>4870723</v>
       </c>
       <c r="AN46" s="19">
-        <v>3294741</v>
+        <v>4431049</v>
       </c>
       <c r="AO46" s="19">
-        <v>4870723</v>
+        <v>4131852</v>
       </c>
       <c r="AP46" s="19">
-        <v>4431049</v>
+        <v>6107802</v>
       </c>
       <c r="AQ46" s="19">
-        <v>4131852</v>
+        <v>4130590</v>
       </c>
       <c r="AR46" s="19">
-        <v>6107802</v>
+        <v>3416528</v>
       </c>
       <c r="AS46" s="19">
-        <v>4130590</v>
+        <v>5087812</v>
       </c>
       <c r="AT46" s="19">
-        <v>3416528</v>
+        <v>4277092</v>
       </c>
       <c r="AU46" s="19">
-        <v>5087812</v>
+        <v>4414836</v>
       </c>
       <c r="AV46" s="19">
-        <v>4277092</v>
+        <v>4074635</v>
       </c>
       <c r="AW46" s="19">
-        <v>4414836</v>
+        <v>4426933</v>
       </c>
       <c r="AX46" s="19">
-        <v>4074635</v>
+        <v>6789854</v>
       </c>
       <c r="AY46" s="19">
-        <v>4426933</v>
+        <v>6413168</v>
       </c>
       <c r="AZ46" s="19">
-        <v>6789854</v>
+        <v>5448330</v>
       </c>
       <c r="BA46" s="19">
-        <v>6413168</v>
+        <v>4918179</v>
       </c>
       <c r="BB46" s="19">
-        <v>5448330</v>
+        <v>4519878</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6191,7 +6191,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6246,7 +6246,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6301,7 +6301,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>82</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6513,7 +6513,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>83</v>
       </c>
@@ -6570,7 +6570,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6686,50 +6686,50 @@
       <c r="AN53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP53" s="11" t="s">
-        <v>58</v>
+      <c r="AO53" s="11">
+        <v>33</v>
+      </c>
+      <c r="AP53" s="11">
+        <v>98</v>
       </c>
       <c r="AQ53" s="11">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AR53" s="11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="11">
-        <v>50</v>
+        <v>13969</v>
       </c>
       <c r="AT53" s="11">
-        <v>0</v>
+        <v>3389</v>
       </c>
       <c r="AU53" s="11">
-        <v>13969</v>
+        <v>4415</v>
       </c>
       <c r="AV53" s="11">
-        <v>3389</v>
+        <v>5727</v>
       </c>
       <c r="AW53" s="11">
-        <v>4415</v>
+        <v>42971</v>
       </c>
       <c r="AX53" s="11">
-        <v>5727</v>
+        <v>47899</v>
       </c>
       <c r="AY53" s="11">
-        <v>42971</v>
+        <v>64866</v>
       </c>
       <c r="AZ53" s="11">
-        <v>47899</v>
+        <v>45500</v>
       </c>
       <c r="BA53" s="11">
-        <v>64866</v>
+        <v>24701</v>
       </c>
       <c r="BB53" s="11">
-        <v>45500</v>
+        <v>45801</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6809,48 +6809,48 @@
       <c r="AB54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD54" s="13" t="s">
-        <v>58</v>
+      <c r="AC54" s="13">
+        <v>5389</v>
+      </c>
+      <c r="AD54" s="13">
+        <v>8694</v>
       </c>
       <c r="AE54" s="13">
-        <v>5389</v>
+        <v>13955</v>
       </c>
       <c r="AF54" s="13">
-        <v>8694</v>
+        <v>7385</v>
       </c>
       <c r="AG54" s="13">
-        <v>13955</v>
+        <v>17172</v>
       </c>
       <c r="AH54" s="13">
-        <v>7385</v>
+        <v>13441</v>
       </c>
       <c r="AI54" s="13">
-        <v>17172</v>
+        <v>10344</v>
       </c>
       <c r="AJ54" s="13">
-        <v>13441</v>
+        <v>13415</v>
       </c>
       <c r="AK54" s="13">
-        <v>10344</v>
+        <v>4688</v>
       </c>
       <c r="AL54" s="13">
-        <v>13415</v>
+        <v>3386</v>
       </c>
       <c r="AM54" s="13">
-        <v>4688</v>
+        <v>688</v>
       </c>
       <c r="AN54" s="13">
-        <v>3386</v>
-      </c>
-      <c r="AO54" s="13">
-        <v>688</v>
-      </c>
-      <c r="AP54" s="13">
         <v>465</v>
       </c>
+      <c r="AO54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP54" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ54" s="13" t="s">
         <v>58</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
@@ -6968,48 +6968,48 @@
       <c r="AB55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD55" s="11" t="s">
-        <v>58</v>
+      <c r="AC55" s="11">
+        <v>25987</v>
+      </c>
+      <c r="AD55" s="11">
+        <v>36320</v>
       </c>
       <c r="AE55" s="11">
-        <v>25987</v>
+        <v>40514</v>
       </c>
       <c r="AF55" s="11">
-        <v>36320</v>
+        <v>41747</v>
       </c>
       <c r="AG55" s="11">
-        <v>40514</v>
+        <v>36246</v>
       </c>
       <c r="AH55" s="11">
-        <v>41747</v>
+        <v>38689</v>
       </c>
       <c r="AI55" s="11">
-        <v>36246</v>
+        <v>50779</v>
       </c>
       <c r="AJ55" s="11">
-        <v>38689</v>
+        <v>85271</v>
       </c>
       <c r="AK55" s="11">
-        <v>50779</v>
+        <v>81231</v>
       </c>
       <c r="AL55" s="11">
-        <v>85271</v>
+        <v>83171</v>
       </c>
       <c r="AM55" s="11">
-        <v>81231</v>
+        <v>164100</v>
       </c>
       <c r="AN55" s="11">
-        <v>83171</v>
-      </c>
-      <c r="AO55" s="11">
-        <v>164100</v>
-      </c>
-      <c r="AP55" s="11">
         <v>137311</v>
       </c>
+      <c r="AO55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP55" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ55" s="11" t="s">
         <v>58</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>63</v>
       </c>
@@ -7127,86 +7127,86 @@
       <c r="AB56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD56" s="13" t="s">
-        <v>58</v>
+      <c r="AC56" s="13">
+        <v>274190</v>
+      </c>
+      <c r="AD56" s="13">
+        <v>379034</v>
       </c>
       <c r="AE56" s="13">
-        <v>274190</v>
+        <v>439931</v>
       </c>
       <c r="AF56" s="13">
-        <v>379034</v>
+        <v>214203</v>
       </c>
       <c r="AG56" s="13">
-        <v>439931</v>
+        <v>396696</v>
       </c>
       <c r="AH56" s="13">
-        <v>214203</v>
+        <v>421257</v>
       </c>
       <c r="AI56" s="13">
-        <v>396696</v>
+        <v>415051</v>
       </c>
       <c r="AJ56" s="13">
-        <v>421257</v>
+        <v>439408</v>
       </c>
       <c r="AK56" s="13">
-        <v>415051</v>
+        <v>649542</v>
       </c>
       <c r="AL56" s="13">
-        <v>439408</v>
+        <v>373516</v>
       </c>
       <c r="AM56" s="13">
-        <v>649542</v>
+        <v>534911</v>
       </c>
       <c r="AN56" s="13">
-        <v>373516</v>
+        <v>558831</v>
       </c>
       <c r="AO56" s="13">
-        <v>534911</v>
+        <v>423922</v>
       </c>
       <c r="AP56" s="13">
-        <v>558831</v>
+        <v>522057</v>
       </c>
       <c r="AQ56" s="13">
-        <v>423922</v>
+        <v>458559</v>
       </c>
       <c r="AR56" s="13">
-        <v>522057</v>
+        <v>506818</v>
       </c>
       <c r="AS56" s="13">
-        <v>458559</v>
+        <v>607517</v>
       </c>
       <c r="AT56" s="13">
-        <v>506818</v>
+        <v>675667</v>
       </c>
       <c r="AU56" s="13">
-        <v>607517</v>
+        <v>757268</v>
       </c>
       <c r="AV56" s="13">
-        <v>675667</v>
+        <v>656929</v>
       </c>
       <c r="AW56" s="13">
-        <v>757268</v>
+        <v>771724</v>
       </c>
       <c r="AX56" s="13">
-        <v>656929</v>
+        <v>656597</v>
       </c>
       <c r="AY56" s="13">
-        <v>771724</v>
+        <v>705381</v>
       </c>
       <c r="AZ56" s="13">
-        <v>656597</v>
+        <v>824204</v>
       </c>
       <c r="BA56" s="13">
-        <v>705381</v>
+        <v>712860</v>
       </c>
       <c r="BB56" s="13">
-        <v>824204</v>
+        <v>649421</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
@@ -7286,86 +7286,86 @@
       <c r="AB57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD57" s="11" t="s">
-        <v>58</v>
+      <c r="AC57" s="11">
+        <v>932647</v>
+      </c>
+      <c r="AD57" s="11">
+        <v>1079537</v>
       </c>
       <c r="AE57" s="11">
-        <v>932647</v>
+        <v>1306898</v>
       </c>
       <c r="AF57" s="11">
-        <v>1079537</v>
+        <v>836905</v>
       </c>
       <c r="AG57" s="11">
-        <v>1306898</v>
+        <v>1245568</v>
       </c>
       <c r="AH57" s="11">
-        <v>836905</v>
+        <v>1210612</v>
       </c>
       <c r="AI57" s="11">
-        <v>1245568</v>
+        <v>1432926</v>
       </c>
       <c r="AJ57" s="11">
-        <v>1210612</v>
+        <v>1648490</v>
       </c>
       <c r="AK57" s="11">
-        <v>1432926</v>
+        <v>2071678</v>
       </c>
       <c r="AL57" s="11">
-        <v>1648490</v>
+        <v>1684209</v>
       </c>
       <c r="AM57" s="11">
-        <v>2071678</v>
+        <v>1943942</v>
       </c>
       <c r="AN57" s="11">
-        <v>1684209</v>
+        <v>2148252</v>
       </c>
       <c r="AO57" s="11">
-        <v>1943942</v>
+        <v>1762613</v>
       </c>
       <c r="AP57" s="11">
-        <v>2148252</v>
+        <v>2377872</v>
       </c>
       <c r="AQ57" s="11">
-        <v>1762613</v>
+        <v>2238813</v>
       </c>
       <c r="AR57" s="11">
-        <v>2377872</v>
+        <v>1694191</v>
       </c>
       <c r="AS57" s="11">
-        <v>2238813</v>
+        <v>2442669</v>
       </c>
       <c r="AT57" s="11">
-        <v>1694191</v>
+        <v>2469638</v>
       </c>
       <c r="AU57" s="11">
-        <v>2442669</v>
+        <v>2589891</v>
       </c>
       <c r="AV57" s="11">
-        <v>2469638</v>
+        <v>3462720</v>
       </c>
       <c r="AW57" s="11">
-        <v>2589891</v>
+        <v>3786997</v>
       </c>
       <c r="AX57" s="11">
-        <v>3462720</v>
+        <v>4341185</v>
       </c>
       <c r="AY57" s="11">
-        <v>3786997</v>
+        <v>4881214</v>
       </c>
       <c r="AZ57" s="11">
-        <v>4341185</v>
+        <v>4660790</v>
       </c>
       <c r="BA57" s="11">
-        <v>4881214</v>
+        <v>4430013</v>
       </c>
       <c r="BB57" s="11">
-        <v>4660790</v>
+        <v>4054421</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>66</v>
       </c>
@@ -7481,50 +7481,50 @@
       <c r="AN58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP58" s="13" t="s">
-        <v>58</v>
+      <c r="AO58" s="13">
+        <v>132301</v>
+      </c>
+      <c r="AP58" s="13">
+        <v>200459</v>
       </c>
       <c r="AQ58" s="13">
-        <v>132301</v>
+        <v>91826</v>
       </c>
       <c r="AR58" s="13">
-        <v>200459</v>
+        <v>145401</v>
       </c>
       <c r="AS58" s="13">
-        <v>91826</v>
+        <v>237817</v>
       </c>
       <c r="AT58" s="13">
-        <v>145401</v>
+        <v>162979</v>
       </c>
       <c r="AU58" s="13">
-        <v>237817</v>
+        <v>160563</v>
       </c>
       <c r="AV58" s="13">
-        <v>162979</v>
+        <v>154226</v>
       </c>
       <c r="AW58" s="13">
-        <v>160563</v>
+        <v>153366</v>
       </c>
       <c r="AX58" s="13">
-        <v>154226</v>
+        <v>339055</v>
       </c>
       <c r="AY58" s="13">
-        <v>153366</v>
+        <v>446171</v>
       </c>
       <c r="AZ58" s="13">
-        <v>339055</v>
+        <v>359620</v>
       </c>
       <c r="BA58" s="13">
-        <v>446171</v>
+        <v>270065</v>
       </c>
       <c r="BB58" s="13">
-        <v>359620</v>
+        <v>278720</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>77</v>
       </c>
@@ -7603,85 +7603,85 @@
         <v>0</v>
       </c>
       <c r="AC59" s="15">
-        <v>0</v>
+        <v>1238213</v>
       </c>
       <c r="AD59" s="15">
-        <v>0</v>
+        <v>1503585</v>
       </c>
       <c r="AE59" s="15">
-        <v>1238213</v>
+        <v>1801298</v>
       </c>
       <c r="AF59" s="15">
-        <v>1503585</v>
+        <v>1100240</v>
       </c>
       <c r="AG59" s="15">
-        <v>1801298</v>
+        <v>1695682</v>
       </c>
       <c r="AH59" s="15">
-        <v>1100240</v>
+        <v>1683999</v>
       </c>
       <c r="AI59" s="15">
-        <v>1695682</v>
+        <v>1909100</v>
       </c>
       <c r="AJ59" s="15">
-        <v>1683999</v>
+        <v>2186584</v>
       </c>
       <c r="AK59" s="15">
-        <v>1909100</v>
+        <v>2807139</v>
       </c>
       <c r="AL59" s="15">
-        <v>2186584</v>
+        <v>2144282</v>
       </c>
       <c r="AM59" s="15">
-        <v>2807139</v>
+        <v>2643641</v>
       </c>
       <c r="AN59" s="15">
-        <v>2144282</v>
+        <v>2844859</v>
       </c>
       <c r="AO59" s="15">
-        <v>2643641</v>
+        <v>2318869</v>
       </c>
       <c r="AP59" s="15">
-        <v>2844859</v>
+        <v>3100486</v>
       </c>
       <c r="AQ59" s="15">
-        <v>2318869</v>
+        <v>2789248</v>
       </c>
       <c r="AR59" s="15">
-        <v>3100486</v>
+        <v>2346410</v>
       </c>
       <c r="AS59" s="15">
-        <v>2789248</v>
+        <v>3301972</v>
       </c>
       <c r="AT59" s="15">
-        <v>2346410</v>
+        <v>3311673</v>
       </c>
       <c r="AU59" s="15">
-        <v>3301972</v>
+        <v>3512137</v>
       </c>
       <c r="AV59" s="15">
-        <v>3311673</v>
+        <v>4279602</v>
       </c>
       <c r="AW59" s="15">
-        <v>3512137</v>
+        <v>4755058</v>
       </c>
       <c r="AX59" s="15">
-        <v>4279602</v>
+        <v>5384736</v>
       </c>
       <c r="AY59" s="15">
-        <v>4755058</v>
+        <v>6097632</v>
       </c>
       <c r="AZ59" s="15">
-        <v>5384736</v>
+        <v>5890114</v>
       </c>
       <c r="BA59" s="15">
-        <v>6097632</v>
+        <v>5437639</v>
       </c>
       <c r="BB59" s="15">
-        <v>5890114</v>
+        <v>5028363</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>85</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>63</v>
       </c>
@@ -7854,14 +7854,14 @@
       <c r="AN61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO61" s="11" t="s">
-        <v>58</v>
+      <c r="AO61" s="11">
+        <v>0</v>
       </c>
       <c r="AP61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ61" s="11">
-        <v>0</v>
+      <c r="AQ61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR61" s="11" t="s">
         <v>58</v>
@@ -7897,7 +7897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>65</v>
       </c>
@@ -8013,14 +8013,14 @@
       <c r="AN62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO62" s="13" t="s">
-        <v>58</v>
+      <c r="AO62" s="13">
+        <v>0</v>
       </c>
       <c r="AP62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ62" s="13">
-        <v>0</v>
+      <c r="AQ62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR62" s="13" t="s">
         <v>58</v>
@@ -8056,7 +8056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>79</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>86</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>73</v>
       </c>
@@ -8350,11 +8350,11 @@
       <c r="AB65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD65" s="15" t="s">
-        <v>58</v>
+      <c r="AC65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="15">
+        <v>0</v>
       </c>
       <c r="AE65" s="15">
         <v>0</v>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>87</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>81</v>
       </c>
@@ -8566,11 +8566,11 @@
       <c r="AB67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD67" s="15" t="s">
-        <v>58</v>
+      <c r="AC67" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="15">
+        <v>0</v>
       </c>
       <c r="AE67" s="15">
         <v>0</v>
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>88</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>89</v>
       </c>
@@ -8782,11 +8782,11 @@
       <c r="AB69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD69" s="11" t="s">
-        <v>58</v>
+      <c r="AC69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="11">
+        <v>0</v>
       </c>
       <c r="AE69" s="11">
         <v>0</v>
@@ -8828,40 +8828,40 @@
         <v>0</v>
       </c>
       <c r="AR69" s="11">
-        <v>0</v>
+        <v>-222689</v>
       </c>
       <c r="AS69" s="11">
-        <v>0</v>
+        <v>-282220</v>
       </c>
       <c r="AT69" s="11">
-        <v>-222689</v>
+        <v>-298449</v>
       </c>
       <c r="AU69" s="11">
-        <v>-282220</v>
+        <v>-275998</v>
       </c>
       <c r="AV69" s="11">
-        <v>-298449</v>
+        <v>-326330</v>
       </c>
       <c r="AW69" s="11">
-        <v>-275998</v>
+        <v>-405203</v>
       </c>
       <c r="AX69" s="11">
-        <v>-326330</v>
+        <v>-475225</v>
       </c>
       <c r="AY69" s="11">
-        <v>-405203</v>
+        <v>-417374</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-475225</v>
+        <v>-363051</v>
       </c>
       <c r="BA69" s="11">
-        <v>-417374</v>
+        <v>-430160</v>
       </c>
       <c r="BB69" s="11">
-        <v>-363051</v>
+        <v>-364041</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>74</v>
       </c>
@@ -8940,85 +8940,85 @@
         <v>0</v>
       </c>
       <c r="AC70" s="19">
-        <v>0</v>
+        <v>1238213</v>
       </c>
       <c r="AD70" s="19">
-        <v>0</v>
+        <v>1503585</v>
       </c>
       <c r="AE70" s="19">
-        <v>1238213</v>
+        <v>1801298</v>
       </c>
       <c r="AF70" s="19">
-        <v>1503585</v>
+        <v>1100240</v>
       </c>
       <c r="AG70" s="19">
-        <v>1801298</v>
+        <v>1695682</v>
       </c>
       <c r="AH70" s="19">
-        <v>1100240</v>
+        <v>1683999</v>
       </c>
       <c r="AI70" s="19">
-        <v>1695682</v>
+        <v>1909100</v>
       </c>
       <c r="AJ70" s="19">
-        <v>1683999</v>
+        <v>2186584</v>
       </c>
       <c r="AK70" s="19">
-        <v>1909100</v>
+        <v>2807139</v>
       </c>
       <c r="AL70" s="19">
-        <v>2186584</v>
+        <v>2144282</v>
       </c>
       <c r="AM70" s="19">
-        <v>2807139</v>
+        <v>2643641</v>
       </c>
       <c r="AN70" s="19">
-        <v>2144282</v>
+        <v>2844859</v>
       </c>
       <c r="AO70" s="19">
-        <v>2643641</v>
+        <v>2318869</v>
       </c>
       <c r="AP70" s="19">
-        <v>2844859</v>
+        <v>3100486</v>
       </c>
       <c r="AQ70" s="19">
-        <v>2318869</v>
+        <v>2789248</v>
       </c>
       <c r="AR70" s="19">
-        <v>3100486</v>
+        <v>2123721</v>
       </c>
       <c r="AS70" s="19">
-        <v>2789248</v>
+        <v>3019752</v>
       </c>
       <c r="AT70" s="19">
-        <v>2123721</v>
+        <v>3013224</v>
       </c>
       <c r="AU70" s="19">
-        <v>3019752</v>
+        <v>3236139</v>
       </c>
       <c r="AV70" s="19">
-        <v>3013224</v>
+        <v>3953272</v>
       </c>
       <c r="AW70" s="19">
-        <v>3236139</v>
+        <v>4349855</v>
       </c>
       <c r="AX70" s="19">
-        <v>3953272</v>
+        <v>4909511</v>
       </c>
       <c r="AY70" s="19">
-        <v>4349855</v>
+        <v>5680258</v>
       </c>
       <c r="AZ70" s="19">
-        <v>4909511</v>
+        <v>5527063</v>
       </c>
       <c r="BA70" s="19">
-        <v>5680258</v>
+        <v>5007479</v>
       </c>
       <c r="BB70" s="19">
-        <v>5527063</v>
+        <v>4664322</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9073,7 +9073,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9128,7 +9128,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9183,7 +9183,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>90</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9395,7 +9395,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>91</v>
       </c>
@@ -9452,7 +9452,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -9568,50 +9568,50 @@
       <c r="AN77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP77" s="11" t="s">
-        <v>58</v>
+      <c r="AO77" s="11">
+        <v>611111</v>
+      </c>
+      <c r="AP77" s="11">
+        <v>608696</v>
       </c>
       <c r="AQ77" s="11">
-        <v>611111</v>
-      </c>
-      <c r="AR77" s="11">
-        <v>608696</v>
+        <v>602410</v>
+      </c>
+      <c r="AR77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS77" s="11">
-        <v>602410</v>
-      </c>
-      <c r="AT77" s="11" t="s">
-        <v>58</v>
+        <v>632310</v>
+      </c>
+      <c r="AT77" s="11">
+        <v>632158</v>
       </c>
       <c r="AU77" s="11">
-        <v>632310</v>
+        <v>632340</v>
       </c>
       <c r="AV77" s="11">
-        <v>632158</v>
+        <v>632468</v>
       </c>
       <c r="AW77" s="11">
-        <v>632340</v>
+        <v>1584068</v>
       </c>
       <c r="AX77" s="11">
-        <v>632468</v>
+        <v>704874</v>
       </c>
       <c r="AY77" s="11">
-        <v>1584068</v>
+        <v>572880</v>
       </c>
       <c r="AZ77" s="11">
-        <v>704874</v>
+        <v>1017829</v>
       </c>
       <c r="BA77" s="11">
-        <v>572880</v>
+        <v>862555</v>
       </c>
       <c r="BB77" s="11">
-        <v>1017829</v>
+        <v>520886</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -9691,48 +9691,48 @@
       <c r="AB78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD78" s="13" t="s">
-        <v>58</v>
+      <c r="AC78" s="13">
+        <v>602527</v>
+      </c>
+      <c r="AD78" s="13">
+        <v>541851</v>
       </c>
       <c r="AE78" s="13">
-        <v>602527</v>
+        <v>568779</v>
       </c>
       <c r="AF78" s="13">
-        <v>541851</v>
+        <v>579625</v>
       </c>
       <c r="AG78" s="13">
-        <v>568779</v>
+        <v>615528</v>
       </c>
       <c r="AH78" s="13">
-        <v>579625</v>
+        <v>605450</v>
       </c>
       <c r="AI78" s="13">
-        <v>615528</v>
+        <v>547128</v>
       </c>
       <c r="AJ78" s="13">
-        <v>605450</v>
+        <v>603844</v>
       </c>
       <c r="AK78" s="13">
-        <v>547128</v>
+        <v>604903</v>
       </c>
       <c r="AL78" s="13">
-        <v>603844</v>
+        <v>568216</v>
       </c>
       <c r="AM78" s="13">
-        <v>604903</v>
+        <v>601399</v>
       </c>
       <c r="AN78" s="13">
-        <v>568216</v>
-      </c>
-      <c r="AO78" s="13">
-        <v>601399</v>
-      </c>
-      <c r="AP78" s="13">
         <v>603896</v>
       </c>
+      <c r="AO78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP78" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ78" s="13" t="s">
         <v>58</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>61</v>
       </c>
@@ -9850,48 +9850,48 @@
       <c r="AB79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD79" s="11" t="s">
-        <v>58</v>
+      <c r="AC79" s="11">
+        <v>90906</v>
+      </c>
+      <c r="AD79" s="11">
+        <v>81221</v>
       </c>
       <c r="AE79" s="11">
-        <v>90906</v>
+        <v>85602</v>
       </c>
       <c r="AF79" s="11">
-        <v>81221</v>
+        <v>96999</v>
       </c>
       <c r="AG79" s="11">
-        <v>85602</v>
+        <v>88526</v>
       </c>
       <c r="AH79" s="11">
-        <v>96999</v>
+        <v>89029</v>
       </c>
       <c r="AI79" s="11">
-        <v>88526</v>
+        <v>87690</v>
       </c>
       <c r="AJ79" s="11">
-        <v>89029</v>
+        <v>83798</v>
       </c>
       <c r="AK79" s="11">
-        <v>87690</v>
+        <v>92042</v>
       </c>
       <c r="AL79" s="11">
-        <v>83798</v>
+        <v>93642</v>
       </c>
       <c r="AM79" s="11">
-        <v>92042</v>
+        <v>94136</v>
       </c>
       <c r="AN79" s="11">
-        <v>93642</v>
-      </c>
-      <c r="AO79" s="11">
-        <v>94136</v>
-      </c>
-      <c r="AP79" s="11">
         <v>96235</v>
       </c>
+      <c r="AO79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP79" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ79" s="11" t="s">
         <v>58</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>63</v>
       </c>
@@ -10009,86 +10009,86 @@
       <c r="AB80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD80" s="13" t="s">
-        <v>58</v>
+      <c r="AC80" s="13">
+        <v>586468</v>
+      </c>
+      <c r="AD80" s="13">
+        <v>645575</v>
       </c>
       <c r="AE80" s="13">
-        <v>586468</v>
+        <v>711391</v>
       </c>
       <c r="AF80" s="13">
-        <v>645575</v>
+        <v>736880</v>
       </c>
       <c r="AG80" s="13">
-        <v>711391</v>
+        <v>655700</v>
       </c>
       <c r="AH80" s="13">
-        <v>736880</v>
+        <v>705447</v>
       </c>
       <c r="AI80" s="13">
-        <v>655700</v>
+        <v>664425</v>
       </c>
       <c r="AJ80" s="13">
-        <v>705447</v>
+        <v>741118</v>
       </c>
       <c r="AK80" s="13">
-        <v>664425</v>
+        <v>550356</v>
       </c>
       <c r="AL80" s="13">
-        <v>741118</v>
+        <v>770494</v>
       </c>
       <c r="AM80" s="13">
-        <v>550356</v>
+        <v>810130</v>
       </c>
       <c r="AN80" s="13">
-        <v>770494</v>
+        <v>854335</v>
       </c>
       <c r="AO80" s="13">
-        <v>810130</v>
+        <v>771224</v>
       </c>
       <c r="AP80" s="13">
-        <v>854335</v>
+        <v>677694</v>
       </c>
       <c r="AQ80" s="13">
-        <v>771224</v>
+        <v>784398</v>
       </c>
       <c r="AR80" s="13">
-        <v>677694</v>
+        <v>1003401</v>
       </c>
       <c r="AS80" s="13">
-        <v>784398</v>
+        <v>794890</v>
       </c>
       <c r="AT80" s="13">
-        <v>1003401</v>
+        <v>1035767</v>
       </c>
       <c r="AU80" s="13">
-        <v>794890</v>
+        <v>946353</v>
       </c>
       <c r="AV80" s="13">
-        <v>1035767</v>
+        <v>1086246</v>
       </c>
       <c r="AW80" s="13">
-        <v>946353</v>
+        <v>1287793</v>
       </c>
       <c r="AX80" s="13">
-        <v>1086246</v>
+        <v>801982</v>
       </c>
       <c r="AY80" s="13">
-        <v>1287793</v>
+        <v>1192348</v>
       </c>
       <c r="AZ80" s="13">
-        <v>801982</v>
+        <v>1229658</v>
       </c>
       <c r="BA80" s="13">
-        <v>1192348</v>
+        <v>1193333</v>
       </c>
       <c r="BB80" s="13">
-        <v>1229658</v>
+        <v>1279264</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>65</v>
       </c>
@@ -10168,86 +10168,86 @@
       <c r="AB81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD81" s="11" t="s">
-        <v>58</v>
+      <c r="AC81" s="11">
+        <v>849169</v>
+      </c>
+      <c r="AD81" s="11">
+        <v>814198</v>
       </c>
       <c r="AE81" s="11">
-        <v>849169</v>
+        <v>880393</v>
       </c>
       <c r="AF81" s="11">
-        <v>814198</v>
+        <v>952669</v>
       </c>
       <c r="AG81" s="11">
-        <v>880393</v>
+        <v>906939</v>
       </c>
       <c r="AH81" s="11">
-        <v>952669</v>
+        <v>974935</v>
       </c>
       <c r="AI81" s="11">
-        <v>906939</v>
+        <v>830298</v>
       </c>
       <c r="AJ81" s="11">
-        <v>974935</v>
+        <v>807358</v>
       </c>
       <c r="AK81" s="11">
-        <v>830298</v>
+        <v>829821</v>
       </c>
       <c r="AL81" s="11">
-        <v>807358</v>
+        <v>879101</v>
       </c>
       <c r="AM81" s="11">
-        <v>829821</v>
+        <v>788274</v>
       </c>
       <c r="AN81" s="11">
-        <v>879101</v>
+        <v>914407</v>
       </c>
       <c r="AO81" s="11">
-        <v>788274</v>
+        <v>815405</v>
       </c>
       <c r="AP81" s="11">
-        <v>914407</v>
+        <v>720796</v>
       </c>
       <c r="AQ81" s="11">
-        <v>815405</v>
+        <v>839116</v>
       </c>
       <c r="AR81" s="11">
-        <v>720796</v>
+        <v>974841</v>
       </c>
       <c r="AS81" s="11">
-        <v>839116</v>
+        <v>1030911</v>
       </c>
       <c r="AT81" s="11">
-        <v>974841</v>
+        <v>1065335</v>
       </c>
       <c r="AU81" s="11">
-        <v>1030911</v>
+        <v>1100646</v>
       </c>
       <c r="AV81" s="11">
-        <v>1065335</v>
+        <v>1493168</v>
       </c>
       <c r="AW81" s="11">
-        <v>1100646</v>
+        <v>1431849</v>
       </c>
       <c r="AX81" s="11">
-        <v>1493168</v>
+        <v>1302553</v>
       </c>
       <c r="AY81" s="11">
-        <v>1431849</v>
+        <v>1521305</v>
       </c>
       <c r="AZ81" s="11">
-        <v>1302553</v>
+        <v>1677388</v>
       </c>
       <c r="BA81" s="11">
-        <v>1521305</v>
+        <v>1581242</v>
       </c>
       <c r="BB81" s="11">
-        <v>1677388</v>
+        <v>1701657</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>66</v>
       </c>
@@ -10363,47 +10363,47 @@
       <c r="AN82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP82" s="13" t="s">
-        <v>58</v>
+      <c r="AO82" s="13">
+        <v>93138</v>
+      </c>
+      <c r="AP82" s="13">
+        <v>98344</v>
       </c>
       <c r="AQ82" s="13">
-        <v>93138</v>
+        <v>104604</v>
       </c>
       <c r="AR82" s="13">
-        <v>98344</v>
+        <v>123902</v>
       </c>
       <c r="AS82" s="13">
-        <v>104604</v>
+        <v>123093</v>
       </c>
       <c r="AT82" s="13">
-        <v>123902</v>
+        <v>125251</v>
       </c>
       <c r="AU82" s="13">
-        <v>123093</v>
+        <v>127980</v>
       </c>
       <c r="AV82" s="13">
-        <v>125251</v>
+        <v>135077</v>
       </c>
       <c r="AW82" s="13">
-        <v>127980</v>
+        <v>132702</v>
       </c>
       <c r="AX82" s="13">
-        <v>135077</v>
+        <v>131910</v>
       </c>
       <c r="AY82" s="13">
-        <v>132702</v>
+        <v>178484</v>
       </c>
       <c r="AZ82" s="13">
-        <v>131910</v>
+        <v>183972</v>
       </c>
       <c r="BA82" s="13">
-        <v>178484</v>
+        <v>181182</v>
       </c>
       <c r="BB82" s="13">
-        <v>183972</v>
+        <v>180791</v>
       </c>
     </row>
   </sheetData>
